--- a/MockData.xlsx
+++ b/MockData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB\Documents\R\Client-Elevator-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89221E4F-DA56-471C-9E73-29961469E6F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B944059-5E0D-4BB5-B843-7598FE597E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4119" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4121" uniqueCount="1002">
   <si>
     <t>ID_Client</t>
   </si>
@@ -3024,6 +3024,12 @@
   </si>
   <si>
     <t>780 BOYLSTON-2</t>
+  </si>
+  <si>
+    <t>OtherComp</t>
+  </si>
+  <si>
+    <t>OtherCR</t>
   </si>
 </sst>
 </file>
@@ -3436,22 +3442,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O364"/>
+  <dimension ref="A1:Q364"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -3497,8 +3515,14 @@
       <c r="O1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -3530,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -3577,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3624,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -3671,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -3718,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -3765,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -3812,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -3859,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3906,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -3953,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -4000,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -4047,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -4094,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -4141,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -21570,8 +21594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MockData.xlsx
+++ b/MockData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB\Documents\R\Client-Elevator-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35211A2-E2D1-4EDD-8954-9AD803836489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEBBAAB-3596-4DDF-A67E-71A8F4BA187C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="Buildings" sheetId="4" r:id="rId4"/>
     <sheet name="Elevators" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Elevators!$I$1:$K$5720</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="4">Elevators!$N$1:$P$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5935" uniqueCount="1885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6121" uniqueCount="1866">
   <si>
     <t>ID_Client</t>
   </si>
@@ -4218,9 +4222,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>PBvdinQQanb36m89</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -4233,15 +4234,9 @@
     <t>6</t>
   </si>
   <si>
-    <t>jR3SZakvsTDRKyec</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>rTatsSUH5gpbZVZ5</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -4254,33 +4249,12 @@
     <t>A</t>
   </si>
   <si>
-    <t>EhfQaVXs1Nbi0DQY</t>
-  </si>
-  <si>
-    <t>MrwxiEYUZhrtk12R</t>
-  </si>
-  <si>
-    <t>BjMrl0XWKxFCw6CA</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>znJSSBmcVr7bpfot</t>
-  </si>
-  <si>
-    <t>X9T3WtwJ7xw2kpTg</t>
-  </si>
-  <si>
-    <t>mGDNRk9IjtFVYia8</t>
-  </si>
-  <si>
     <t>AL12</t>
   </si>
   <si>
-    <t>hffvl0C54nxQ5zoX</t>
-  </si>
-  <si>
     <t>AL13</t>
   </si>
   <si>
@@ -4311,9 +4285,6 @@
     <t>PE2</t>
   </si>
   <si>
-    <t>ZNL4pkU8tl8JQpQ4</t>
-  </si>
-  <si>
     <t>PE1</t>
   </si>
   <si>
@@ -4323,27 +4294,9 @@
     <t>PE3</t>
   </si>
   <si>
-    <t>06wMqCRQw5gY9JUB</t>
-  </si>
-  <si>
-    <t>ppSGOLJ3L8cclqQd</t>
-  </si>
-  <si>
-    <t>uZMIeiCpGxFJnyvc</t>
-  </si>
-  <si>
-    <t>TdAf0NZZ0lJqcAxV</t>
-  </si>
-  <si>
-    <t>U6VTl1gz6QViCObQ</t>
-  </si>
-  <si>
     <t>290-1</t>
   </si>
   <si>
-    <t>DeBpcuz8qUv3Ygne</t>
-  </si>
-  <si>
     <t>290-2</t>
   </si>
   <si>
@@ -4353,42 +4306,18 @@
     <t>150-2</t>
   </si>
   <si>
-    <t>YZ8lc7tUPd31z9fQ</t>
-  </si>
-  <si>
-    <t>PKuI5zlh300genWn</t>
-  </si>
-  <si>
-    <t>rTugqvaqrH7APlOy</t>
-  </si>
-  <si>
-    <t>UvEc0UAYqpwUxz2e</t>
-  </si>
-  <si>
     <t>5 (HYDRO)</t>
   </si>
   <si>
-    <t>hk0nTh6E5XrEj7g7</t>
-  </si>
-  <si>
-    <t>Cwv5kNibKVO6Gly3</t>
-  </si>
-  <si>
     <t>HYDRO (GARAGE)</t>
   </si>
   <si>
-    <t>PgX1fqnbjwYFySX5</t>
-  </si>
-  <si>
     <t>6 (FREIGHT)</t>
   </si>
   <si>
     <t>1C</t>
   </si>
   <si>
-    <t>QIrhBFPlgbzNHNHA</t>
-  </si>
-  <si>
     <t>1A</t>
   </si>
   <si>
@@ -4410,9 +4339,6 @@
     <t>HYDRO</t>
   </si>
   <si>
-    <t>nYmaqibmOThA7DpF</t>
-  </si>
-  <si>
     <t>W/C</t>
   </si>
   <si>
@@ -4422,15 +4348,9 @@
     <t>SE1</t>
   </si>
   <si>
-    <t>COSx2xzMuZWuCO4M</t>
-  </si>
-  <si>
     <t>BLDG5-2</t>
   </si>
   <si>
-    <t>38Jg6XwwbdDxdSBr</t>
-  </si>
-  <si>
     <t>BLDG5-1</t>
   </si>
   <si>
@@ -4449,33 +4369,18 @@
     <t>BLDG1-1</t>
   </si>
   <si>
-    <t>O6APmqyUFq8fN99W</t>
-  </si>
-  <si>
-    <t>zq3fSE2EUmZ1v9v0</t>
-  </si>
-  <si>
-    <t>5svFqCgXPrblItW6</t>
-  </si>
-  <si>
     <t>8 (HYDRO)</t>
   </si>
   <si>
     <t>WHEELCHAIR</t>
   </si>
   <si>
-    <t>7aaiVmKaX60Yr4Mm</t>
-  </si>
-  <si>
     <t>6 (ROPED HYDRO)</t>
   </si>
   <si>
     <t>A-1000</t>
   </si>
   <si>
-    <t>gkXsu46vo30f6fma</t>
-  </si>
-  <si>
     <t>B-2000</t>
   </si>
   <si>
@@ -4485,33 +4390,12 @@
     <t>A-2000</t>
   </si>
   <si>
-    <t>Q5Wpf4fOlQIZTSZt</t>
-  </si>
-  <si>
-    <t>57fIOnwXY0Se2HCC</t>
-  </si>
-  <si>
-    <t>7o9EHiuOw3CVHMj0</t>
-  </si>
-  <si>
-    <t>CFmI3AguB1awPKpi</t>
-  </si>
-  <si>
-    <t>g8fXezywRvMMstf4</t>
-  </si>
-  <si>
-    <t>y1aseqFVsKHkFnZr</t>
-  </si>
-  <si>
     <t>4 (ROPED HYDRO)</t>
   </si>
   <si>
     <t>ROPED HYDRO</t>
   </si>
   <si>
-    <t>j1gh0sTtRmri7ysw</t>
-  </si>
-  <si>
     <t>THEATER (HYDRO) No Cat5 Needed</t>
   </si>
   <si>
@@ -4524,21 +4408,12 @@
     <t>SE4 (HYDRO)</t>
   </si>
   <si>
-    <t>C6PTvgmkPyLWtghh</t>
-  </si>
-  <si>
     <t>SE2</t>
   </si>
   <si>
-    <t>K2OFuNZ2ssSK2txf</t>
-  </si>
-  <si>
     <t>66 GLENBROOK (HYDRO-1)</t>
   </si>
   <si>
-    <t>2EtFuhYt9Vc7HCf9</t>
-  </si>
-  <si>
     <t>96 GLENBROOK-1</t>
   </si>
   <si>
@@ -4554,15 +4429,9 @@
     <t>66 GLENBROOK (HYDRO-2)</t>
   </si>
   <si>
-    <t>aTKp3AhThXks1fkZ</t>
-  </si>
-  <si>
     <t>790 BOYLSTON-3</t>
   </si>
   <si>
-    <t>4xMZaTJR6WqF0rWD</t>
-  </si>
-  <si>
     <t>780 BOYLSTON-4</t>
   </si>
   <si>
@@ -4596,15 +4465,6 @@
     <t>780 BOYLSTON-2</t>
   </si>
   <si>
-    <t>XVOGAn44YfgugkCo</t>
-  </si>
-  <si>
-    <t>TzLpqkcL3MOv8JD4</t>
-  </si>
-  <si>
-    <t>K4BxucWTseEcL1LH</t>
-  </si>
-  <si>
     <t>2019-03-28 11:45:00</t>
   </si>
   <si>
@@ -5689,16 +5549,115 @@
   </si>
   <si>
     <t>2020-07-01 09:00:00</t>
+  </si>
+  <si>
+    <t>11 East First Street</t>
+  </si>
+  <si>
+    <t>22 East First Street</t>
+  </si>
+  <si>
+    <t>515 West 52nd St.</t>
+  </si>
+  <si>
+    <t>510 West 52nd St.</t>
+  </si>
+  <si>
+    <t>77 Exeter Street</t>
+  </si>
+  <si>
+    <t>343 Gold St.</t>
+  </si>
+  <si>
+    <t>1 Nashua Street</t>
+  </si>
+  <si>
+    <t>4-75 48th Ave</t>
+  </si>
+  <si>
+    <t>c2itxMnUmbPRBN67</t>
+  </si>
+  <si>
+    <t>skeifje9oApew2js</t>
+  </si>
+  <si>
+    <t>uejakO8flakemgjw</t>
+  </si>
+  <si>
+    <t>nZrqpomNGIQksciW</t>
+  </si>
+  <si>
+    <t>KCReLVsql8TjKef7</t>
+  </si>
+  <si>
+    <t>QNc4Cz8cdG8uJJeL</t>
+  </si>
+  <si>
+    <t>FNCZUxIjxHWSJhty</t>
+  </si>
+  <si>
+    <t>jjJfruSSY2hpfOpp</t>
+  </si>
+  <si>
+    <t>kfl8iOp0janfloaa</t>
+  </si>
+  <si>
+    <t>OmKcuNXfR7iOcopy</t>
+  </si>
+  <si>
+    <t>AVALONBAY</t>
+  </si>
+  <si>
+    <t>SC5ALEZlncZ6U3cD</t>
+  </si>
+  <si>
+    <t>BhLbcie0176YN2XS</t>
+  </si>
+  <si>
+    <t>klcie2Ajd4a1m0TA</t>
+  </si>
+  <si>
+    <t>qmGqGOY3GLCAoruy</t>
+  </si>
+  <si>
+    <t>Ax3Kpn9P3wBP7VfL</t>
+  </si>
+  <si>
+    <t>2tSRh7JM4bqCOhis</t>
+  </si>
+  <si>
+    <t>8KhkpujLUMmWk5q5</t>
+  </si>
+  <si>
+    <t>Lsgnk3zbGRZzTSzE</t>
+  </si>
+  <si>
+    <t>cd32UYVXAX1CA2t6</t>
+  </si>
+  <si>
+    <t>ECMNniwv7iQ7m5ZG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5712,7 +5671,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -5720,12 +5679,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6024,9 +6015,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6094,12 +6092,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q364"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6229,7 +6228,7 @@
         <v>47</v>
       </c>
       <c r="N3" t="s">
-        <v>1523</v>
+        <v>1475</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -6276,7 +6275,7 @@
         <v>52</v>
       </c>
       <c r="N4" t="s">
-        <v>1524</v>
+        <v>1476</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -6323,7 +6322,7 @@
         <v>59</v>
       </c>
       <c r="N5" t="s">
-        <v>1525</v>
+        <v>1477</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -6370,7 +6369,7 @@
         <v>64</v>
       </c>
       <c r="N6" t="s">
-        <v>1526</v>
+        <v>1478</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -6417,7 +6416,7 @@
         <v>71</v>
       </c>
       <c r="N7" t="s">
-        <v>1527</v>
+        <v>1479</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -6464,7 +6463,7 @@
         <v>78</v>
       </c>
       <c r="N8" t="s">
-        <v>1528</v>
+        <v>1480</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -6511,7 +6510,7 @@
         <v>84</v>
       </c>
       <c r="N9" t="s">
-        <v>1529</v>
+        <v>1481</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -6558,7 +6557,7 @@
         <v>91</v>
       </c>
       <c r="N10" t="s">
-        <v>1530</v>
+        <v>1482</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -6605,7 +6604,7 @@
         <v>97</v>
       </c>
       <c r="N11" t="s">
-        <v>1531</v>
+        <v>1483</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -6652,7 +6651,7 @@
         <v>102</v>
       </c>
       <c r="N12" t="s">
-        <v>1532</v>
+        <v>1484</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -6699,7 +6698,7 @@
         <v>107</v>
       </c>
       <c r="N13" t="s">
-        <v>1533</v>
+        <v>1485</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -6746,7 +6745,7 @@
         <v>100</v>
       </c>
       <c r="N14" t="s">
-        <v>1534</v>
+        <v>1486</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -6793,7 +6792,7 @@
         <v>95</v>
       </c>
       <c r="N15" t="s">
-        <v>1535</v>
+        <v>1487</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -6840,7 +6839,7 @@
         <v>121</v>
       </c>
       <c r="N16" t="s">
-        <v>1536</v>
+        <v>1488</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -6887,7 +6886,7 @@
         <v>126</v>
       </c>
       <c r="N17" t="s">
-        <v>1537</v>
+        <v>1489</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -6934,7 +6933,7 @@
         <v>129</v>
       </c>
       <c r="N18" t="s">
-        <v>1538</v>
+        <v>1490</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -6981,7 +6980,7 @@
         <v>135</v>
       </c>
       <c r="N19" t="s">
-        <v>1539</v>
+        <v>1491</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -7028,7 +7027,7 @@
         <v>141</v>
       </c>
       <c r="N20" t="s">
-        <v>1540</v>
+        <v>1492</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -7075,7 +7074,7 @@
         <v>146</v>
       </c>
       <c r="N21" t="s">
-        <v>1541</v>
+        <v>1493</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -7122,7 +7121,7 @@
         <v>151</v>
       </c>
       <c r="N22" t="s">
-        <v>1542</v>
+        <v>1494</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -7169,7 +7168,7 @@
         <v>156</v>
       </c>
       <c r="N23" t="s">
-        <v>1543</v>
+        <v>1495</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -7216,7 +7215,7 @@
         <v>161</v>
       </c>
       <c r="N24" t="s">
-        <v>1544</v>
+        <v>1496</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -7263,7 +7262,7 @@
         <v>165</v>
       </c>
       <c r="N25" t="s">
-        <v>1545</v>
+        <v>1497</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -7310,7 +7309,7 @@
         <v>169</v>
       </c>
       <c r="N26" t="s">
-        <v>1546</v>
+        <v>1498</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -7357,7 +7356,7 @@
         <v>174</v>
       </c>
       <c r="N27" t="s">
-        <v>1547</v>
+        <v>1499</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -7404,7 +7403,7 @@
         <v>97</v>
       </c>
       <c r="N28" t="s">
-        <v>1548</v>
+        <v>1500</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -7451,7 +7450,7 @@
         <v>182</v>
       </c>
       <c r="N29" t="s">
-        <v>1549</v>
+        <v>1501</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -7498,7 +7497,7 @@
         <v>188</v>
       </c>
       <c r="N30" t="s">
-        <v>1550</v>
+        <v>1502</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -7545,7 +7544,7 @@
         <v>95</v>
       </c>
       <c r="N31" t="s">
-        <v>1551</v>
+        <v>1503</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -7592,7 +7591,7 @@
         <v>197</v>
       </c>
       <c r="N32" t="s">
-        <v>1552</v>
+        <v>1504</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -7639,7 +7638,7 @@
         <v>201</v>
       </c>
       <c r="N33" t="s">
-        <v>1553</v>
+        <v>1505</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -7686,7 +7685,7 @@
         <v>206</v>
       </c>
       <c r="N34" t="s">
-        <v>1554</v>
+        <v>1506</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -7733,7 +7732,7 @@
         <v>106</v>
       </c>
       <c r="N35" t="s">
-        <v>1555</v>
+        <v>1507</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -7780,7 +7779,7 @@
         <v>215</v>
       </c>
       <c r="N36" t="s">
-        <v>1556</v>
+        <v>1508</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -7827,7 +7826,7 @@
         <v>219</v>
       </c>
       <c r="N37" t="s">
-        <v>1557</v>
+        <v>1509</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -7874,7 +7873,7 @@
         <v>224</v>
       </c>
       <c r="N38" t="s">
-        <v>1558</v>
+        <v>1510</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -7921,7 +7920,7 @@
         <v>228</v>
       </c>
       <c r="N39" t="s">
-        <v>1559</v>
+        <v>1511</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -7968,7 +7967,7 @@
         <v>234</v>
       </c>
       <c r="N40" t="s">
-        <v>1560</v>
+        <v>1512</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -8015,7 +8014,7 @@
         <v>240</v>
       </c>
       <c r="N41" t="s">
-        <v>1561</v>
+        <v>1513</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -8062,7 +8061,7 @@
         <v>244</v>
       </c>
       <c r="N42" t="s">
-        <v>1562</v>
+        <v>1514</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -8109,7 +8108,7 @@
         <v>188</v>
       </c>
       <c r="N43" t="s">
-        <v>1563</v>
+        <v>1515</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -8156,7 +8155,7 @@
         <v>250</v>
       </c>
       <c r="N44" t="s">
-        <v>1564</v>
+        <v>1516</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -8203,7 +8202,7 @@
         <v>253</v>
       </c>
       <c r="N45" t="s">
-        <v>1565</v>
+        <v>1517</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -8250,7 +8249,7 @@
         <v>185</v>
       </c>
       <c r="N46" t="s">
-        <v>1566</v>
+        <v>1518</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -8297,7 +8296,7 @@
         <v>261</v>
       </c>
       <c r="N47" t="s">
-        <v>1567</v>
+        <v>1519</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -8344,7 +8343,7 @@
         <v>265</v>
       </c>
       <c r="N48" t="s">
-        <v>1568</v>
+        <v>1520</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -8391,7 +8390,7 @@
         <v>269</v>
       </c>
       <c r="N49" t="s">
-        <v>1569</v>
+        <v>1521</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -8438,7 +8437,7 @@
         <v>273</v>
       </c>
       <c r="N50" t="s">
-        <v>1570</v>
+        <v>1522</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -8485,7 +8484,7 @@
         <v>278</v>
       </c>
       <c r="N51" t="s">
-        <v>1571</v>
+        <v>1523</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -8532,7 +8531,7 @@
         <v>282</v>
       </c>
       <c r="N52" t="s">
-        <v>1572</v>
+        <v>1524</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -8579,7 +8578,7 @@
         <v>286</v>
       </c>
       <c r="N53" t="s">
-        <v>1573</v>
+        <v>1525</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -8626,7 +8625,7 @@
         <v>290</v>
       </c>
       <c r="N54" t="s">
-        <v>1574</v>
+        <v>1526</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -8673,7 +8672,7 @@
         <v>294</v>
       </c>
       <c r="N55" t="s">
-        <v>1575</v>
+        <v>1527</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -8720,7 +8719,7 @@
         <v>296</v>
       </c>
       <c r="N56" t="s">
-        <v>1576</v>
+        <v>1528</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -8767,7 +8766,7 @@
         <v>300</v>
       </c>
       <c r="N57" t="s">
-        <v>1577</v>
+        <v>1529</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -8814,7 +8813,7 @@
         <v>304</v>
       </c>
       <c r="N58" t="s">
-        <v>1578</v>
+        <v>1530</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -8861,7 +8860,7 @@
         <v>308</v>
       </c>
       <c r="N59" t="s">
-        <v>1579</v>
+        <v>1531</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -8908,7 +8907,7 @@
         <v>218</v>
       </c>
       <c r="N60" t="s">
-        <v>1580</v>
+        <v>1532</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -8955,7 +8954,7 @@
         <v>315</v>
       </c>
       <c r="N61" t="s">
-        <v>1581</v>
+        <v>1533</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -9002,7 +9001,7 @@
         <v>58</v>
       </c>
       <c r="N62" t="s">
-        <v>1582</v>
+        <v>1534</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -9049,7 +9048,7 @@
         <v>321</v>
       </c>
       <c r="N63" t="s">
-        <v>1583</v>
+        <v>1535</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -9096,7 +9095,7 @@
         <v>325</v>
       </c>
       <c r="N64" t="s">
-        <v>1584</v>
+        <v>1536</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -9143,7 +9142,7 @@
         <v>330</v>
       </c>
       <c r="N65" t="s">
-        <v>1585</v>
+        <v>1537</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -9190,7 +9189,7 @@
         <v>337</v>
       </c>
       <c r="N66" t="s">
-        <v>1586</v>
+        <v>1538</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -9237,7 +9236,7 @@
         <v>346</v>
       </c>
       <c r="N67" t="s">
-        <v>1587</v>
+        <v>1539</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -9284,7 +9283,7 @@
         <v>353</v>
       </c>
       <c r="N68" t="s">
-        <v>1588</v>
+        <v>1540</v>
       </c>
       <c r="O68">
         <v>0</v>
@@ -9331,7 +9330,7 @@
         <v>361</v>
       </c>
       <c r="N69" t="s">
-        <v>1589</v>
+        <v>1541</v>
       </c>
       <c r="O69">
         <v>0</v>
@@ -9378,7 +9377,7 @@
         <v>367</v>
       </c>
       <c r="N70" t="s">
-        <v>1590</v>
+        <v>1542</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -9425,7 +9424,7 @@
         <v>375</v>
       </c>
       <c r="N71" t="s">
-        <v>1591</v>
+        <v>1543</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -9472,7 +9471,7 @@
         <v>174</v>
       </c>
       <c r="N72" t="s">
-        <v>1592</v>
+        <v>1544</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -9519,7 +9518,7 @@
         <v>82</v>
       </c>
       <c r="N73" t="s">
-        <v>1593</v>
+        <v>1545</v>
       </c>
       <c r="O73">
         <v>0</v>
@@ -9566,7 +9565,7 @@
         <v>399</v>
       </c>
       <c r="N74" t="s">
-        <v>1594</v>
+        <v>1546</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -9613,7 +9612,7 @@
         <v>407</v>
       </c>
       <c r="N75" t="s">
-        <v>1595</v>
+        <v>1547</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -9660,7 +9659,7 @@
         <v>415</v>
       </c>
       <c r="N76" t="s">
-        <v>1596</v>
+        <v>1548</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -9707,7 +9706,7 @@
         <v>423</v>
       </c>
       <c r="N77" t="s">
-        <v>1597</v>
+        <v>1549</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -9754,7 +9753,7 @@
         <v>432</v>
       </c>
       <c r="N78" t="s">
-        <v>1598</v>
+        <v>1550</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -9801,7 +9800,7 @@
         <v>439</v>
       </c>
       <c r="N79" t="s">
-        <v>1599</v>
+        <v>1551</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -9848,7 +9847,7 @@
         <v>423</v>
       </c>
       <c r="N80" t="s">
-        <v>1600</v>
+        <v>1552</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -9895,7 +9894,7 @@
         <v>423</v>
       </c>
       <c r="N81" t="s">
-        <v>1601</v>
+        <v>1553</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -9942,7 +9941,7 @@
         <v>460</v>
       </c>
       <c r="N82" t="s">
-        <v>1602</v>
+        <v>1554</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -9989,7 +9988,7 @@
         <v>466</v>
       </c>
       <c r="N83" t="s">
-        <v>1603</v>
+        <v>1555</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -10036,7 +10035,7 @@
         <v>474</v>
       </c>
       <c r="N84" t="s">
-        <v>1604</v>
+        <v>1556</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -10083,7 +10082,7 @@
         <v>399</v>
       </c>
       <c r="N85" t="s">
-        <v>1605</v>
+        <v>1557</v>
       </c>
       <c r="O85">
         <v>0</v>
@@ -10130,7 +10129,7 @@
         <v>432</v>
       </c>
       <c r="N86" t="s">
-        <v>1606</v>
+        <v>1558</v>
       </c>
       <c r="O86">
         <v>0</v>
@@ -10177,7 +10176,7 @@
         <v>361</v>
       </c>
       <c r="N87" t="s">
-        <v>1607</v>
+        <v>1559</v>
       </c>
       <c r="O87">
         <v>0</v>
@@ -10224,7 +10223,7 @@
         <v>361</v>
       </c>
       <c r="N88" t="s">
-        <v>1608</v>
+        <v>1560</v>
       </c>
       <c r="O88">
         <v>0</v>
@@ -10271,7 +10270,7 @@
         <v>367</v>
       </c>
       <c r="N89" t="s">
-        <v>1609</v>
+        <v>1561</v>
       </c>
       <c r="O89">
         <v>0</v>
@@ -10318,7 +10317,7 @@
         <v>361</v>
       </c>
       <c r="N90" t="s">
-        <v>1610</v>
+        <v>1562</v>
       </c>
       <c r="O90">
         <v>0</v>
@@ -10365,7 +10364,7 @@
         <v>176</v>
       </c>
       <c r="N91" t="s">
-        <v>1611</v>
+        <v>1563</v>
       </c>
       <c r="O91">
         <v>0</v>
@@ -10412,7 +10411,7 @@
         <v>432</v>
       </c>
       <c r="N92" t="s">
-        <v>1612</v>
+        <v>1564</v>
       </c>
       <c r="O92">
         <v>0</v>
@@ -10459,7 +10458,7 @@
         <v>346</v>
       </c>
       <c r="N93" t="s">
-        <v>1613</v>
+        <v>1565</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -10506,7 +10505,7 @@
         <v>174</v>
       </c>
       <c r="N94" t="s">
-        <v>1614</v>
+        <v>1566</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -10553,7 +10552,7 @@
         <v>423</v>
       </c>
       <c r="N95" t="s">
-        <v>1615</v>
+        <v>1567</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -10600,7 +10599,7 @@
         <v>544</v>
       </c>
       <c r="N96" t="s">
-        <v>1616</v>
+        <v>1568</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -10647,7 +10646,7 @@
         <v>460</v>
       </c>
       <c r="N97" t="s">
-        <v>1617</v>
+        <v>1569</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -10694,7 +10693,7 @@
         <v>439</v>
       </c>
       <c r="N98" t="s">
-        <v>1618</v>
+        <v>1570</v>
       </c>
       <c r="O98">
         <v>0</v>
@@ -10741,7 +10740,7 @@
         <v>561</v>
       </c>
       <c r="N99" t="s">
-        <v>1619</v>
+        <v>1571</v>
       </c>
       <c r="O99">
         <v>0</v>
@@ -10788,7 +10787,7 @@
         <v>567</v>
       </c>
       <c r="N100" t="s">
-        <v>1620</v>
+        <v>1572</v>
       </c>
       <c r="O100">
         <v>0</v>
@@ -10835,7 +10834,7 @@
         <v>375</v>
       </c>
       <c r="N101" t="s">
-        <v>1621</v>
+        <v>1573</v>
       </c>
       <c r="O101">
         <v>0</v>
@@ -10882,7 +10881,7 @@
         <v>561</v>
       </c>
       <c r="N102" t="s">
-        <v>1622</v>
+        <v>1574</v>
       </c>
       <c r="O102">
         <v>0</v>
@@ -10929,7 +10928,7 @@
         <v>273</v>
       </c>
       <c r="N103" t="s">
-        <v>1623</v>
+        <v>1575</v>
       </c>
       <c r="O103">
         <v>0</v>
@@ -10976,7 +10975,7 @@
         <v>474</v>
       </c>
       <c r="N104" t="s">
-        <v>1624</v>
+        <v>1576</v>
       </c>
       <c r="O104">
         <v>0</v>
@@ -11023,7 +11022,7 @@
         <v>432</v>
       </c>
       <c r="N105" t="s">
-        <v>1625</v>
+        <v>1577</v>
       </c>
       <c r="O105">
         <v>0</v>
@@ -11070,7 +11069,7 @@
         <v>597</v>
       </c>
       <c r="N106" t="s">
-        <v>1626</v>
+        <v>1578</v>
       </c>
       <c r="O106">
         <v>0</v>
@@ -11117,7 +11116,7 @@
         <v>407</v>
       </c>
       <c r="N107" t="s">
-        <v>1627</v>
+        <v>1579</v>
       </c>
       <c r="O107">
         <v>0</v>
@@ -11164,7 +11163,7 @@
         <v>567</v>
       </c>
       <c r="N108" t="s">
-        <v>1628</v>
+        <v>1580</v>
       </c>
       <c r="O108">
         <v>0</v>
@@ -11211,7 +11210,7 @@
         <v>69</v>
       </c>
       <c r="N109" t="s">
-        <v>1629</v>
+        <v>1581</v>
       </c>
       <c r="O109">
         <v>0</v>
@@ -11258,7 +11257,7 @@
         <v>423</v>
       </c>
       <c r="N110" t="s">
-        <v>1630</v>
+        <v>1582</v>
       </c>
       <c r="O110">
         <v>0</v>
@@ -11305,7 +11304,7 @@
         <v>82</v>
       </c>
       <c r="N111" t="s">
-        <v>1631</v>
+        <v>1583</v>
       </c>
       <c r="O111">
         <v>0</v>
@@ -11352,7 +11351,7 @@
         <v>474</v>
       </c>
       <c r="N112" t="s">
-        <v>1632</v>
+        <v>1584</v>
       </c>
       <c r="O112">
         <v>0</v>
@@ -11399,7 +11398,7 @@
         <v>632</v>
       </c>
       <c r="N113" t="s">
-        <v>1633</v>
+        <v>1585</v>
       </c>
       <c r="O113">
         <v>0</v>
@@ -11446,7 +11445,7 @@
         <v>597</v>
       </c>
       <c r="N114" t="s">
-        <v>1634</v>
+        <v>1586</v>
       </c>
       <c r="O114">
         <v>0</v>
@@ -11493,7 +11492,7 @@
         <v>176</v>
       </c>
       <c r="N115" t="s">
-        <v>1635</v>
+        <v>1587</v>
       </c>
       <c r="O115">
         <v>0</v>
@@ -11540,7 +11539,7 @@
         <v>361</v>
       </c>
       <c r="N116" t="s">
-        <v>1636</v>
+        <v>1588</v>
       </c>
       <c r="O116">
         <v>0</v>
@@ -11587,7 +11586,7 @@
         <v>567</v>
       </c>
       <c r="N117" t="s">
-        <v>1637</v>
+        <v>1589</v>
       </c>
       <c r="O117">
         <v>0</v>
@@ -11634,7 +11633,7 @@
         <v>82</v>
       </c>
       <c r="N118" t="s">
-        <v>1638</v>
+        <v>1590</v>
       </c>
       <c r="O118">
         <v>0</v>
@@ -11681,7 +11680,7 @@
         <v>656</v>
       </c>
       <c r="N119" t="s">
-        <v>1639</v>
+        <v>1591</v>
       </c>
       <c r="O119">
         <v>0</v>
@@ -11728,7 +11727,7 @@
         <v>597</v>
       </c>
       <c r="N120" t="s">
-        <v>1640</v>
+        <v>1592</v>
       </c>
       <c r="O120">
         <v>0</v>
@@ -11775,7 +11774,7 @@
         <v>632</v>
       </c>
       <c r="N121" t="s">
-        <v>1641</v>
+        <v>1593</v>
       </c>
       <c r="O121">
         <v>0</v>
@@ -11822,7 +11821,7 @@
         <v>69</v>
       </c>
       <c r="N122" t="s">
-        <v>1642</v>
+        <v>1594</v>
       </c>
       <c r="O122">
         <v>0</v>
@@ -11869,7 +11868,7 @@
         <v>632</v>
       </c>
       <c r="N123" t="s">
-        <v>1643</v>
+        <v>1595</v>
       </c>
       <c r="O123">
         <v>0</v>
@@ -11916,7 +11915,7 @@
         <v>174</v>
       </c>
       <c r="N124" t="s">
-        <v>1644</v>
+        <v>1596</v>
       </c>
       <c r="O124">
         <v>0</v>
@@ -11963,7 +11962,7 @@
         <v>680</v>
       </c>
       <c r="N125" t="s">
-        <v>1645</v>
+        <v>1597</v>
       </c>
       <c r="O125">
         <v>0</v>
@@ -12010,7 +12009,7 @@
         <v>597</v>
       </c>
       <c r="N126" t="s">
-        <v>1646</v>
+        <v>1598</v>
       </c>
       <c r="O126">
         <v>0</v>
@@ -12057,7 +12056,7 @@
         <v>474</v>
       </c>
       <c r="N127" t="s">
-        <v>1647</v>
+        <v>1599</v>
       </c>
       <c r="O127">
         <v>0</v>
@@ -12104,7 +12103,7 @@
         <v>567</v>
       </c>
       <c r="N128" t="s">
-        <v>1648</v>
+        <v>1600</v>
       </c>
       <c r="O128">
         <v>1</v>
@@ -12151,7 +12150,7 @@
         <v>466</v>
       </c>
       <c r="N129" t="s">
-        <v>1649</v>
+        <v>1601</v>
       </c>
       <c r="O129">
         <v>0</v>
@@ -12198,7 +12197,7 @@
         <v>561</v>
       </c>
       <c r="N130" t="s">
-        <v>1650</v>
+        <v>1602</v>
       </c>
       <c r="O130">
         <v>0</v>
@@ -12245,7 +12244,7 @@
         <v>375</v>
       </c>
       <c r="N131" t="s">
-        <v>1651</v>
+        <v>1603</v>
       </c>
       <c r="O131">
         <v>0</v>
@@ -12292,7 +12291,7 @@
         <v>561</v>
       </c>
       <c r="N132" t="s">
-        <v>1652</v>
+        <v>1604</v>
       </c>
       <c r="O132">
         <v>0</v>
@@ -12339,7 +12338,7 @@
         <v>474</v>
       </c>
       <c r="N133" t="s">
-        <v>1653</v>
+        <v>1605</v>
       </c>
       <c r="O133">
         <v>0</v>
@@ -12386,7 +12385,7 @@
         <v>432</v>
       </c>
       <c r="N134" t="s">
-        <v>1654</v>
+        <v>1606</v>
       </c>
       <c r="O134">
         <v>0</v>
@@ -12433,7 +12432,7 @@
         <v>474</v>
       </c>
       <c r="N135" t="s">
-        <v>1655</v>
+        <v>1607</v>
       </c>
       <c r="O135">
         <v>0</v>
@@ -12480,7 +12479,7 @@
         <v>176</v>
       </c>
       <c r="N136" t="s">
-        <v>1656</v>
+        <v>1608</v>
       </c>
       <c r="O136">
         <v>0</v>
@@ -12527,7 +12526,7 @@
         <v>176</v>
       </c>
       <c r="N137" t="s">
-        <v>1657</v>
+        <v>1609</v>
       </c>
       <c r="O137">
         <v>0</v>
@@ -12574,7 +12573,7 @@
         <v>77</v>
       </c>
       <c r="N138" t="s">
-        <v>1658</v>
+        <v>1610</v>
       </c>
       <c r="O138">
         <v>0</v>
@@ -12621,7 +12620,7 @@
         <v>399</v>
       </c>
       <c r="N139" t="s">
-        <v>1659</v>
+        <v>1611</v>
       </c>
       <c r="O139">
         <v>0</v>
@@ -12668,7 +12667,7 @@
         <v>353</v>
       </c>
       <c r="N140" t="s">
-        <v>1660</v>
+        <v>1612</v>
       </c>
       <c r="O140">
         <v>0</v>
@@ -12715,7 +12714,7 @@
         <v>273</v>
       </c>
       <c r="N141" t="s">
-        <v>1661</v>
+        <v>1613</v>
       </c>
       <c r="O141">
         <v>0</v>
@@ -12762,7 +12761,7 @@
         <v>69</v>
       </c>
       <c r="N142" t="s">
-        <v>1662</v>
+        <v>1614</v>
       </c>
       <c r="O142">
         <v>0</v>
@@ -12809,7 +12808,7 @@
         <v>176</v>
       </c>
       <c r="N143" t="s">
-        <v>1663</v>
+        <v>1615</v>
       </c>
       <c r="O143">
         <v>0</v>
@@ -12856,7 +12855,7 @@
         <v>307</v>
       </c>
       <c r="N144" t="s">
-        <v>1664</v>
+        <v>1616</v>
       </c>
       <c r="O144">
         <v>0</v>
@@ -12903,7 +12902,7 @@
         <v>632</v>
       </c>
       <c r="N145" t="s">
-        <v>1665</v>
+        <v>1617</v>
       </c>
       <c r="O145">
         <v>0</v>
@@ -12950,7 +12949,7 @@
         <v>399</v>
       </c>
       <c r="N146" t="s">
-        <v>1666</v>
+        <v>1618</v>
       </c>
       <c r="O146">
         <v>0</v>
@@ -12997,7 +12996,7 @@
         <v>337</v>
       </c>
       <c r="N147" t="s">
-        <v>1667</v>
+        <v>1619</v>
       </c>
       <c r="O147">
         <v>0</v>
@@ -13044,7 +13043,7 @@
         <v>466</v>
       </c>
       <c r="N148" t="s">
-        <v>1668</v>
+        <v>1620</v>
       </c>
       <c r="O148">
         <v>0</v>
@@ -13091,7 +13090,7 @@
         <v>632</v>
       </c>
       <c r="N149" t="s">
-        <v>1669</v>
+        <v>1621</v>
       </c>
       <c r="O149">
         <v>0</v>
@@ -13138,7 +13137,7 @@
         <v>77</v>
       </c>
       <c r="N150" t="s">
-        <v>1670</v>
+        <v>1622</v>
       </c>
       <c r="O150">
         <v>0</v>
@@ -13185,7 +13184,7 @@
         <v>375</v>
       </c>
       <c r="N151" t="s">
-        <v>1671</v>
+        <v>1623</v>
       </c>
       <c r="O151">
         <v>0</v>
@@ -13232,7 +13231,7 @@
         <v>423</v>
       </c>
       <c r="N152" t="s">
-        <v>1672</v>
+        <v>1624</v>
       </c>
       <c r="O152">
         <v>0</v>
@@ -13279,7 +13278,7 @@
         <v>77</v>
       </c>
       <c r="N153" t="s">
-        <v>1673</v>
+        <v>1625</v>
       </c>
       <c r="O153">
         <v>0</v>
@@ -13326,7 +13325,7 @@
         <v>680</v>
       </c>
       <c r="N154" t="s">
-        <v>1674</v>
+        <v>1626</v>
       </c>
       <c r="O154">
         <v>0</v>
@@ -13373,7 +13372,7 @@
         <v>597</v>
       </c>
       <c r="N155" t="s">
-        <v>1675</v>
+        <v>1627</v>
       </c>
       <c r="O155">
         <v>0</v>
@@ -13420,7 +13419,7 @@
         <v>69</v>
       </c>
       <c r="N156" t="s">
-        <v>1676</v>
+        <v>1628</v>
       </c>
       <c r="O156">
         <v>0</v>
@@ -13467,7 +13466,7 @@
         <v>466</v>
       </c>
       <c r="N157" t="s">
-        <v>1677</v>
+        <v>1629</v>
       </c>
       <c r="O157">
         <v>0</v>
@@ -13514,7 +13513,7 @@
         <v>567</v>
       </c>
       <c r="N158" t="s">
-        <v>1678</v>
+        <v>1630</v>
       </c>
       <c r="O158">
         <v>0</v>
@@ -13561,7 +13560,7 @@
         <v>69</v>
       </c>
       <c r="N159" t="s">
-        <v>1679</v>
+        <v>1631</v>
       </c>
       <c r="O159">
         <v>0</v>
@@ -13608,7 +13607,7 @@
         <v>273</v>
       </c>
       <c r="N160" t="s">
-        <v>1680</v>
+        <v>1632</v>
       </c>
       <c r="O160">
         <v>0</v>
@@ -13655,7 +13654,7 @@
         <v>561</v>
       </c>
       <c r="N161" t="s">
-        <v>1681</v>
+        <v>1633</v>
       </c>
       <c r="O161">
         <v>0</v>
@@ -13702,7 +13701,7 @@
         <v>375</v>
       </c>
       <c r="N162" t="s">
-        <v>1682</v>
+        <v>1634</v>
       </c>
       <c r="O162">
         <v>0</v>
@@ -13749,7 +13748,7 @@
         <v>399</v>
       </c>
       <c r="N163" t="s">
-        <v>1683</v>
+        <v>1635</v>
       </c>
       <c r="O163">
         <v>0</v>
@@ -13796,7 +13795,7 @@
         <v>680</v>
       </c>
       <c r="N164" t="s">
-        <v>1684</v>
+        <v>1636</v>
       </c>
       <c r="O164">
         <v>0</v>
@@ -13843,7 +13842,7 @@
         <v>176</v>
       </c>
       <c r="N165" t="s">
-        <v>1685</v>
+        <v>1637</v>
       </c>
       <c r="O165">
         <v>0</v>
@@ -13890,7 +13889,7 @@
         <v>597</v>
       </c>
       <c r="N166" t="s">
-        <v>1686</v>
+        <v>1638</v>
       </c>
       <c r="O166">
         <v>0</v>
@@ -13937,7 +13936,7 @@
         <v>375</v>
       </c>
       <c r="N167" t="s">
-        <v>1687</v>
+        <v>1639</v>
       </c>
       <c r="O167">
         <v>0</v>
@@ -13984,7 +13983,7 @@
         <v>432</v>
       </c>
       <c r="N168" t="s">
-        <v>1688</v>
+        <v>1640</v>
       </c>
       <c r="O168">
         <v>0</v>
@@ -14031,7 +14030,7 @@
         <v>399</v>
       </c>
       <c r="N169" t="s">
-        <v>1689</v>
+        <v>1641</v>
       </c>
       <c r="O169">
         <v>0</v>
@@ -14078,7 +14077,7 @@
         <v>273</v>
       </c>
       <c r="N170" t="s">
-        <v>1690</v>
+        <v>1642</v>
       </c>
       <c r="O170">
         <v>0</v>
@@ -14125,7 +14124,7 @@
         <v>337</v>
       </c>
       <c r="N171" t="s">
-        <v>1691</v>
+        <v>1643</v>
       </c>
       <c r="O171">
         <v>0</v>
@@ -14172,7 +14171,7 @@
         <v>460</v>
       </c>
       <c r="N172" t="s">
-        <v>1692</v>
+        <v>1644</v>
       </c>
       <c r="O172">
         <v>0</v>
@@ -14219,7 +14218,7 @@
         <v>407</v>
       </c>
       <c r="N173" t="s">
-        <v>1693</v>
+        <v>1645</v>
       </c>
       <c r="O173">
         <v>0</v>
@@ -14266,7 +14265,7 @@
         <v>656</v>
       </c>
       <c r="N174" t="s">
-        <v>1694</v>
+        <v>1646</v>
       </c>
       <c r="O174">
         <v>0</v>
@@ -14313,7 +14312,7 @@
         <v>544</v>
       </c>
       <c r="N175" t="s">
-        <v>1695</v>
+        <v>1647</v>
       </c>
       <c r="O175">
         <v>0</v>
@@ -14360,7 +14359,7 @@
         <v>460</v>
       </c>
       <c r="N176" t="s">
-        <v>1696</v>
+        <v>1648</v>
       </c>
       <c r="O176">
         <v>0</v>
@@ -14407,7 +14406,7 @@
         <v>632</v>
       </c>
       <c r="N177" t="s">
-        <v>1697</v>
+        <v>1649</v>
       </c>
       <c r="O177">
         <v>1</v>
@@ -14454,7 +14453,7 @@
         <v>174</v>
       </c>
       <c r="N178" t="s">
-        <v>1698</v>
+        <v>1650</v>
       </c>
       <c r="O178">
         <v>0</v>
@@ -14501,7 +14500,7 @@
         <v>337</v>
       </c>
       <c r="N179" t="s">
-        <v>1699</v>
+        <v>1651</v>
       </c>
       <c r="O179">
         <v>0</v>
@@ -14548,7 +14547,7 @@
         <v>680</v>
       </c>
       <c r="N180" t="s">
-        <v>1700</v>
+        <v>1652</v>
       </c>
       <c r="O180">
         <v>0</v>
@@ -14595,7 +14594,7 @@
         <v>353</v>
       </c>
       <c r="N181" t="s">
-        <v>1701</v>
+        <v>1653</v>
       </c>
       <c r="O181">
         <v>0</v>
@@ -14642,7 +14641,7 @@
         <v>460</v>
       </c>
       <c r="N182" t="s">
-        <v>1702</v>
+        <v>1654</v>
       </c>
       <c r="O182">
         <v>0</v>
@@ -14689,7 +14688,7 @@
         <v>361</v>
       </c>
       <c r="N183" t="s">
-        <v>1703</v>
+        <v>1655</v>
       </c>
       <c r="O183">
         <v>0</v>
@@ -14736,7 +14735,7 @@
         <v>346</v>
       </c>
       <c r="N184" t="s">
-        <v>1704</v>
+        <v>1656</v>
       </c>
       <c r="O184">
         <v>0</v>
@@ -14783,7 +14782,7 @@
         <v>346</v>
       </c>
       <c r="N185" t="s">
-        <v>1705</v>
+        <v>1657</v>
       </c>
       <c r="O185">
         <v>0</v>
@@ -14830,7 +14829,7 @@
         <v>460</v>
       </c>
       <c r="N186" t="s">
-        <v>1706</v>
+        <v>1658</v>
       </c>
       <c r="O186">
         <v>0</v>
@@ -14877,7 +14876,7 @@
         <v>567</v>
       </c>
       <c r="N187" t="s">
-        <v>1707</v>
+        <v>1659</v>
       </c>
       <c r="O187">
         <v>0</v>
@@ -14924,7 +14923,7 @@
         <v>353</v>
       </c>
       <c r="N188" t="s">
-        <v>1708</v>
+        <v>1660</v>
       </c>
       <c r="O188">
         <v>0</v>
@@ -14971,7 +14970,7 @@
         <v>891</v>
       </c>
       <c r="N189" t="s">
-        <v>1709</v>
+        <v>1661</v>
       </c>
       <c r="O189">
         <v>0</v>
@@ -15018,7 +15017,7 @@
         <v>597</v>
       </c>
       <c r="N190" t="s">
-        <v>1710</v>
+        <v>1662</v>
       </c>
       <c r="O190">
         <v>0</v>
@@ -15065,7 +15064,7 @@
         <v>466</v>
       </c>
       <c r="N191" t="s">
-        <v>1711</v>
+        <v>1663</v>
       </c>
       <c r="O191">
         <v>0</v>
@@ -15112,7 +15111,7 @@
         <v>891</v>
       </c>
       <c r="N192" t="s">
-        <v>1712</v>
+        <v>1664</v>
       </c>
       <c r="O192">
         <v>0</v>
@@ -15159,7 +15158,7 @@
         <v>361</v>
       </c>
       <c r="N193" t="s">
-        <v>1713</v>
+        <v>1665</v>
       </c>
       <c r="O193">
         <v>0</v>
@@ -15206,7 +15205,7 @@
         <v>432</v>
       </c>
       <c r="N194" t="s">
-        <v>1714</v>
+        <v>1666</v>
       </c>
       <c r="O194">
         <v>0</v>
@@ -15253,7 +15252,7 @@
         <v>597</v>
       </c>
       <c r="N195" t="s">
-        <v>1715</v>
+        <v>1667</v>
       </c>
       <c r="O195">
         <v>0</v>
@@ -15300,7 +15299,7 @@
         <v>307</v>
       </c>
       <c r="N196" t="s">
-        <v>1716</v>
+        <v>1668</v>
       </c>
       <c r="O196">
         <v>0</v>
@@ -15347,7 +15346,7 @@
         <v>273</v>
       </c>
       <c r="N197" t="s">
-        <v>1717</v>
+        <v>1669</v>
       </c>
       <c r="O197">
         <v>0</v>
@@ -15394,7 +15393,7 @@
         <v>307</v>
       </c>
       <c r="N198" t="s">
-        <v>1718</v>
+        <v>1670</v>
       </c>
       <c r="O198">
         <v>0</v>
@@ -15441,7 +15440,7 @@
         <v>423</v>
       </c>
       <c r="N199" t="s">
-        <v>1719</v>
+        <v>1671</v>
       </c>
       <c r="O199">
         <v>0</v>
@@ -15488,7 +15487,7 @@
         <v>407</v>
       </c>
       <c r="N200" t="s">
-        <v>1720</v>
+        <v>1672</v>
       </c>
       <c r="O200">
         <v>0</v>
@@ -15535,7 +15534,7 @@
         <v>176</v>
       </c>
       <c r="N201" t="s">
-        <v>1721</v>
+        <v>1673</v>
       </c>
       <c r="O201">
         <v>0</v>
@@ -15582,7 +15581,7 @@
         <v>176</v>
       </c>
       <c r="N202" t="s">
-        <v>1722</v>
+        <v>1674</v>
       </c>
       <c r="O202">
         <v>0</v>
@@ -15629,7 +15628,7 @@
         <v>273</v>
       </c>
       <c r="N203" t="s">
-        <v>1723</v>
+        <v>1675</v>
       </c>
       <c r="O203">
         <v>0</v>
@@ -15676,7 +15675,7 @@
         <v>567</v>
       </c>
       <c r="N204" t="s">
-        <v>1724</v>
+        <v>1676</v>
       </c>
       <c r="O204">
         <v>0</v>
@@ -15723,7 +15722,7 @@
         <v>680</v>
       </c>
       <c r="N205" t="s">
-        <v>1725</v>
+        <v>1677</v>
       </c>
       <c r="O205">
         <v>0</v>
@@ -15770,7 +15769,7 @@
         <v>597</v>
       </c>
       <c r="N206" t="s">
-        <v>1726</v>
+        <v>1678</v>
       </c>
       <c r="O206">
         <v>0</v>
@@ -15817,7 +15816,7 @@
         <v>273</v>
       </c>
       <c r="N207" t="s">
-        <v>1727</v>
+        <v>1679</v>
       </c>
       <c r="O207">
         <v>0</v>
@@ -15864,7 +15863,7 @@
         <v>399</v>
       </c>
       <c r="N208" t="s">
-        <v>1728</v>
+        <v>1680</v>
       </c>
       <c r="O208">
         <v>0</v>
@@ -15911,7 +15910,7 @@
         <v>69</v>
       </c>
       <c r="N209" t="s">
-        <v>1729</v>
+        <v>1681</v>
       </c>
       <c r="O209">
         <v>0</v>
@@ -15958,7 +15957,7 @@
         <v>415</v>
       </c>
       <c r="N210" t="s">
-        <v>1730</v>
+        <v>1682</v>
       </c>
       <c r="O210">
         <v>0</v>
@@ -16005,7 +16004,7 @@
         <v>415</v>
       </c>
       <c r="N211" t="s">
-        <v>1731</v>
+        <v>1683</v>
       </c>
       <c r="O211">
         <v>0</v>
@@ -16052,7 +16051,7 @@
         <v>69</v>
       </c>
       <c r="N212" t="s">
-        <v>1732</v>
+        <v>1684</v>
       </c>
       <c r="O212">
         <v>0</v>
@@ -16099,7 +16098,7 @@
         <v>367</v>
       </c>
       <c r="N213" t="s">
-        <v>1733</v>
+        <v>1685</v>
       </c>
       <c r="O213">
         <v>0</v>
@@ -16146,7 +16145,7 @@
         <v>361</v>
       </c>
       <c r="N214" t="s">
-        <v>1734</v>
+        <v>1686</v>
       </c>
       <c r="O214">
         <v>0</v>
@@ -16193,7 +16192,7 @@
         <v>561</v>
       </c>
       <c r="N215" t="s">
-        <v>1735</v>
+        <v>1687</v>
       </c>
       <c r="O215">
         <v>0</v>
@@ -16240,7 +16239,7 @@
         <v>460</v>
       </c>
       <c r="N216" t="s">
-        <v>1736</v>
+        <v>1688</v>
       </c>
       <c r="O216">
         <v>0</v>
@@ -16287,7 +16286,7 @@
         <v>656</v>
       </c>
       <c r="N217" t="s">
-        <v>1737</v>
+        <v>1689</v>
       </c>
       <c r="O217">
         <v>0</v>
@@ -16334,7 +16333,7 @@
         <v>544</v>
       </c>
       <c r="N218" t="s">
-        <v>1738</v>
+        <v>1690</v>
       </c>
       <c r="O218">
         <v>0</v>
@@ -16381,7 +16380,7 @@
         <v>337</v>
       </c>
       <c r="N219" t="s">
-        <v>1739</v>
+        <v>1691</v>
       </c>
       <c r="O219">
         <v>0</v>
@@ -16428,7 +16427,7 @@
         <v>176</v>
       </c>
       <c r="N220" t="s">
-        <v>1740</v>
+        <v>1692</v>
       </c>
       <c r="O220">
         <v>0</v>
@@ -16475,7 +16474,7 @@
         <v>375</v>
       </c>
       <c r="N221" t="s">
-        <v>1741</v>
+        <v>1693</v>
       </c>
       <c r="O221">
         <v>0</v>
@@ -16522,7 +16521,7 @@
         <v>77</v>
       </c>
       <c r="N222" t="s">
-        <v>1742</v>
+        <v>1694</v>
       </c>
       <c r="O222">
         <v>0</v>
@@ -16569,7 +16568,7 @@
         <v>82</v>
       </c>
       <c r="N223" t="s">
-        <v>1743</v>
+        <v>1695</v>
       </c>
       <c r="O223">
         <v>0</v>
@@ -16616,7 +16615,7 @@
         <v>337</v>
       </c>
       <c r="N224" t="s">
-        <v>1744</v>
+        <v>1696</v>
       </c>
       <c r="O224">
         <v>0</v>
@@ -16663,7 +16662,7 @@
         <v>407</v>
       </c>
       <c r="N225" t="s">
-        <v>1745</v>
+        <v>1697</v>
       </c>
       <c r="O225">
         <v>0</v>
@@ -16710,7 +16709,7 @@
         <v>346</v>
       </c>
       <c r="N226" t="s">
-        <v>1746</v>
+        <v>1698</v>
       </c>
       <c r="O226">
         <v>0</v>
@@ -16757,7 +16756,7 @@
         <v>346</v>
       </c>
       <c r="N227" t="s">
-        <v>1747</v>
+        <v>1699</v>
       </c>
       <c r="O227">
         <v>1</v>
@@ -16804,7 +16803,7 @@
         <v>346</v>
       </c>
       <c r="N228" t="s">
-        <v>1748</v>
+        <v>1700</v>
       </c>
       <c r="O228">
         <v>0</v>
@@ -16851,7 +16850,7 @@
         <v>544</v>
       </c>
       <c r="N229" t="s">
-        <v>1749</v>
+        <v>1701</v>
       </c>
       <c r="O229">
         <v>0</v>
@@ -16898,7 +16897,7 @@
         <v>474</v>
       </c>
       <c r="N230" t="s">
-        <v>1750</v>
+        <v>1702</v>
       </c>
       <c r="O230">
         <v>0</v>
@@ -16945,7 +16944,7 @@
         <v>597</v>
       </c>
       <c r="N231" t="s">
-        <v>1751</v>
+        <v>1703</v>
       </c>
       <c r="O231">
         <v>0</v>
@@ -16992,7 +16991,7 @@
         <v>439</v>
       </c>
       <c r="N232" t="s">
-        <v>1752</v>
+        <v>1704</v>
       </c>
       <c r="O232">
         <v>0</v>
@@ -17039,7 +17038,7 @@
         <v>466</v>
       </c>
       <c r="N233" t="s">
-        <v>1753</v>
+        <v>1705</v>
       </c>
       <c r="O233">
         <v>0</v>
@@ -17086,7 +17085,7 @@
         <v>69</v>
       </c>
       <c r="N234" t="s">
-        <v>1754</v>
+        <v>1706</v>
       </c>
       <c r="O234">
         <v>0</v>
@@ -17133,7 +17132,7 @@
         <v>432</v>
       </c>
       <c r="N235" t="s">
-        <v>1755</v>
+        <v>1707</v>
       </c>
       <c r="O235">
         <v>0</v>
@@ -17180,7 +17179,7 @@
         <v>407</v>
       </c>
       <c r="N236" t="s">
-        <v>1756</v>
+        <v>1708</v>
       </c>
       <c r="O236">
         <v>1</v>
@@ -17227,7 +17226,7 @@
         <v>656</v>
       </c>
       <c r="N237" t="s">
-        <v>1757</v>
+        <v>1709</v>
       </c>
       <c r="O237">
         <v>0</v>
@@ -17274,7 +17273,7 @@
         <v>69</v>
       </c>
       <c r="N238" t="s">
-        <v>1758</v>
+        <v>1710</v>
       </c>
       <c r="O238">
         <v>0</v>
@@ -17321,7 +17320,7 @@
         <v>174</v>
       </c>
       <c r="N239" t="s">
-        <v>1759</v>
+        <v>1711</v>
       </c>
       <c r="O239">
         <v>0</v>
@@ -17368,7 +17367,7 @@
         <v>423</v>
       </c>
       <c r="N240" t="s">
-        <v>1760</v>
+        <v>1712</v>
       </c>
       <c r="O240">
         <v>0</v>
@@ -17415,7 +17414,7 @@
         <v>474</v>
       </c>
       <c r="N241" t="s">
-        <v>1761</v>
+        <v>1713</v>
       </c>
       <c r="O241">
         <v>0</v>
@@ -17462,7 +17461,7 @@
         <v>346</v>
       </c>
       <c r="N242" t="s">
-        <v>1762</v>
+        <v>1714</v>
       </c>
       <c r="O242">
         <v>0</v>
@@ -17509,7 +17508,7 @@
         <v>439</v>
       </c>
       <c r="N243" t="s">
-        <v>1763</v>
+        <v>1715</v>
       </c>
       <c r="O243">
         <v>0</v>
@@ -17556,7 +17555,7 @@
         <v>367</v>
       </c>
       <c r="N244" t="s">
-        <v>1764</v>
+        <v>1716</v>
       </c>
       <c r="O244">
         <v>0</v>
@@ -17603,7 +17602,7 @@
         <v>632</v>
       </c>
       <c r="N245" t="s">
-        <v>1765</v>
+        <v>1717</v>
       </c>
       <c r="O245">
         <v>0</v>
@@ -17650,7 +17649,7 @@
         <v>375</v>
       </c>
       <c r="N246" t="s">
-        <v>1766</v>
+        <v>1718</v>
       </c>
       <c r="O246">
         <v>0</v>
@@ -17697,7 +17696,7 @@
         <v>656</v>
       </c>
       <c r="N247" t="s">
-        <v>1767</v>
+        <v>1719</v>
       </c>
       <c r="O247">
         <v>0</v>
@@ -17744,7 +17743,7 @@
         <v>346</v>
       </c>
       <c r="N248" t="s">
-        <v>1768</v>
+        <v>1720</v>
       </c>
       <c r="O248">
         <v>0</v>
@@ -17791,7 +17790,7 @@
         <v>273</v>
       </c>
       <c r="N249" t="s">
-        <v>1769</v>
+        <v>1721</v>
       </c>
       <c r="O249">
         <v>0</v>
@@ -17838,7 +17837,7 @@
         <v>176</v>
       </c>
       <c r="N250" t="s">
-        <v>1770</v>
+        <v>1722</v>
       </c>
       <c r="O250">
         <v>0</v>
@@ -17885,7 +17884,7 @@
         <v>632</v>
       </c>
       <c r="N251" t="s">
-        <v>1771</v>
+        <v>1723</v>
       </c>
       <c r="O251">
         <v>0</v>
@@ -17932,7 +17931,7 @@
         <v>466</v>
       </c>
       <c r="N252" t="s">
-        <v>1772</v>
+        <v>1724</v>
       </c>
       <c r="O252">
         <v>0</v>
@@ -17979,7 +17978,7 @@
         <v>407</v>
       </c>
       <c r="N253" t="s">
-        <v>1773</v>
+        <v>1725</v>
       </c>
       <c r="O253">
         <v>0</v>
@@ -18026,7 +18025,7 @@
         <v>174</v>
       </c>
       <c r="N254" t="s">
-        <v>1774</v>
+        <v>1726</v>
       </c>
       <c r="O254">
         <v>0</v>
@@ -18073,7 +18072,7 @@
         <v>346</v>
       </c>
       <c r="N255" t="s">
-        <v>1775</v>
+        <v>1727</v>
       </c>
       <c r="O255">
         <v>0</v>
@@ -18120,7 +18119,7 @@
         <v>273</v>
       </c>
       <c r="N256" t="s">
-        <v>1776</v>
+        <v>1728</v>
       </c>
       <c r="O256">
         <v>0</v>
@@ -18167,7 +18166,7 @@
         <v>337</v>
       </c>
       <c r="N257" t="s">
-        <v>1777</v>
+        <v>1729</v>
       </c>
       <c r="O257">
         <v>0</v>
@@ -18214,7 +18213,7 @@
         <v>561</v>
       </c>
       <c r="N258" t="s">
-        <v>1778</v>
+        <v>1730</v>
       </c>
       <c r="O258">
         <v>0</v>
@@ -18261,7 +18260,7 @@
         <v>337</v>
       </c>
       <c r="N259" t="s">
-        <v>1779</v>
+        <v>1731</v>
       </c>
       <c r="O259">
         <v>0</v>
@@ -18308,7 +18307,7 @@
         <v>597</v>
       </c>
       <c r="N260" t="s">
-        <v>1780</v>
+        <v>1732</v>
       </c>
       <c r="O260">
         <v>0</v>
@@ -18355,7 +18354,7 @@
         <v>656</v>
       </c>
       <c r="N261" t="s">
-        <v>1781</v>
+        <v>1733</v>
       </c>
       <c r="O261">
         <v>0</v>
@@ -18402,7 +18401,7 @@
         <v>567</v>
       </c>
       <c r="N262" t="s">
-        <v>1782</v>
+        <v>1734</v>
       </c>
       <c r="O262">
         <v>0</v>
@@ -18449,7 +18448,7 @@
         <v>632</v>
       </c>
       <c r="N263" t="s">
-        <v>1783</v>
+        <v>1735</v>
       </c>
       <c r="O263">
         <v>0</v>
@@ -18496,7 +18495,7 @@
         <v>466</v>
       </c>
       <c r="N264" t="s">
-        <v>1784</v>
+        <v>1736</v>
       </c>
       <c r="O264">
         <v>0</v>
@@ -18543,7 +18542,7 @@
         <v>544</v>
       </c>
       <c r="N265" t="s">
-        <v>1785</v>
+        <v>1737</v>
       </c>
       <c r="O265">
         <v>0</v>
@@ -18590,7 +18589,7 @@
         <v>561</v>
       </c>
       <c r="N266" t="s">
-        <v>1786</v>
+        <v>1738</v>
       </c>
       <c r="O266">
         <v>0</v>
@@ -18637,7 +18636,7 @@
         <v>474</v>
       </c>
       <c r="N267" t="s">
-        <v>1787</v>
+        <v>1739</v>
       </c>
       <c r="O267">
         <v>0</v>
@@ -18684,7 +18683,7 @@
         <v>439</v>
       </c>
       <c r="N268" t="s">
-        <v>1788</v>
+        <v>1740</v>
       </c>
       <c r="O268">
         <v>0</v>
@@ -18731,7 +18730,7 @@
         <v>415</v>
       </c>
       <c r="N269" t="s">
-        <v>1789</v>
+        <v>1741</v>
       </c>
       <c r="O269">
         <v>0</v>
@@ -18778,7 +18777,7 @@
         <v>367</v>
       </c>
       <c r="N270" t="s">
-        <v>1790</v>
+        <v>1742</v>
       </c>
       <c r="O270">
         <v>0</v>
@@ -18825,7 +18824,7 @@
         <v>176</v>
       </c>
       <c r="N271" t="s">
-        <v>1791</v>
+        <v>1743</v>
       </c>
       <c r="O271">
         <v>0</v>
@@ -18872,7 +18871,7 @@
         <v>174</v>
       </c>
       <c r="N272" t="s">
-        <v>1792</v>
+        <v>1744</v>
       </c>
       <c r="O272">
         <v>0</v>
@@ -18919,7 +18918,7 @@
         <v>439</v>
       </c>
       <c r="N273" t="s">
-        <v>1793</v>
+        <v>1745</v>
       </c>
       <c r="O273">
         <v>0</v>
@@ -18966,7 +18965,7 @@
         <v>632</v>
       </c>
       <c r="N274" t="s">
-        <v>1794</v>
+        <v>1746</v>
       </c>
       <c r="O274">
         <v>0</v>
@@ -19013,7 +19012,7 @@
         <v>375</v>
       </c>
       <c r="N275" t="s">
-        <v>1795</v>
+        <v>1747</v>
       </c>
       <c r="O275">
         <v>0</v>
@@ -19060,7 +19059,7 @@
         <v>307</v>
       </c>
       <c r="N276" t="s">
-        <v>1796</v>
+        <v>1748</v>
       </c>
       <c r="O276">
         <v>0</v>
@@ -19107,7 +19106,7 @@
         <v>346</v>
       </c>
       <c r="N277" t="s">
-        <v>1797</v>
+        <v>1749</v>
       </c>
       <c r="O277">
         <v>0</v>
@@ -19154,7 +19153,7 @@
         <v>466</v>
       </c>
       <c r="N278" t="s">
-        <v>1798</v>
+        <v>1750</v>
       </c>
       <c r="O278">
         <v>0</v>
@@ -19201,7 +19200,7 @@
         <v>337</v>
       </c>
       <c r="N279" t="s">
-        <v>1799</v>
+        <v>1751</v>
       </c>
       <c r="O279">
         <v>0</v>
@@ -19248,7 +19247,7 @@
         <v>176</v>
       </c>
       <c r="N280" t="s">
-        <v>1800</v>
+        <v>1752</v>
       </c>
       <c r="O280">
         <v>0</v>
@@ -19295,7 +19294,7 @@
         <v>176</v>
       </c>
       <c r="N281" t="s">
-        <v>1801</v>
+        <v>1753</v>
       </c>
       <c r="O281">
         <v>0</v>
@@ -19342,7 +19341,7 @@
         <v>567</v>
       </c>
       <c r="N282" t="s">
-        <v>1802</v>
+        <v>1754</v>
       </c>
       <c r="O282">
         <v>0</v>
@@ -19389,7 +19388,7 @@
         <v>176</v>
       </c>
       <c r="N283" t="s">
-        <v>1803</v>
+        <v>1755</v>
       </c>
       <c r="O283">
         <v>0</v>
@@ -19436,7 +19435,7 @@
         <v>77</v>
       </c>
       <c r="N284" t="s">
-        <v>1804</v>
+        <v>1756</v>
       </c>
       <c r="O284">
         <v>0</v>
@@ -19483,7 +19482,7 @@
         <v>337</v>
       </c>
       <c r="N285" t="s">
-        <v>1805</v>
+        <v>1757</v>
       </c>
       <c r="O285">
         <v>0</v>
@@ -19530,7 +19529,7 @@
         <v>361</v>
       </c>
       <c r="N286" t="s">
-        <v>1806</v>
+        <v>1758</v>
       </c>
       <c r="O286">
         <v>0</v>
@@ -19577,7 +19576,7 @@
         <v>407</v>
       </c>
       <c r="N287" t="s">
-        <v>1807</v>
+        <v>1759</v>
       </c>
       <c r="O287">
         <v>0</v>
@@ -19624,7 +19623,7 @@
         <v>544</v>
       </c>
       <c r="N288" t="s">
-        <v>1808</v>
+        <v>1760</v>
       </c>
       <c r="O288">
         <v>0</v>
@@ -19671,7 +19670,7 @@
         <v>353</v>
       </c>
       <c r="N289" t="s">
-        <v>1809</v>
+        <v>1761</v>
       </c>
       <c r="O289">
         <v>0</v>
@@ -19718,7 +19717,7 @@
         <v>423</v>
       </c>
       <c r="N290" t="s">
-        <v>1810</v>
+        <v>1762</v>
       </c>
       <c r="O290">
         <v>0</v>
@@ -19765,7 +19764,7 @@
         <v>561</v>
       </c>
       <c r="N291" t="s">
-        <v>1811</v>
+        <v>1763</v>
       </c>
       <c r="O291">
         <v>0</v>
@@ -19812,7 +19811,7 @@
         <v>460</v>
       </c>
       <c r="N292" t="s">
-        <v>1812</v>
+        <v>1764</v>
       </c>
       <c r="O292">
         <v>0</v>
@@ -19859,7 +19858,7 @@
         <v>176</v>
       </c>
       <c r="N293" t="s">
-        <v>1813</v>
+        <v>1765</v>
       </c>
       <c r="O293">
         <v>0</v>
@@ -19906,7 +19905,7 @@
         <v>561</v>
       </c>
       <c r="N294" t="s">
-        <v>1814</v>
+        <v>1766</v>
       </c>
       <c r="O294">
         <v>0</v>
@@ -19953,7 +19952,7 @@
         <v>353</v>
       </c>
       <c r="N295" t="s">
-        <v>1815</v>
+        <v>1767</v>
       </c>
       <c r="O295">
         <v>0</v>
@@ -20000,7 +19999,7 @@
         <v>632</v>
       </c>
       <c r="N296" t="s">
-        <v>1816</v>
+        <v>1768</v>
       </c>
       <c r="O296">
         <v>0</v>
@@ -20047,7 +20046,7 @@
         <v>632</v>
       </c>
       <c r="N297" t="s">
-        <v>1817</v>
+        <v>1769</v>
       </c>
       <c r="O297">
         <v>0</v>
@@ -20094,7 +20093,7 @@
         <v>474</v>
       </c>
       <c r="N298" t="s">
-        <v>1818</v>
+        <v>1770</v>
       </c>
       <c r="O298">
         <v>0</v>
@@ -20141,7 +20140,7 @@
         <v>307</v>
       </c>
       <c r="N299" t="s">
-        <v>1819</v>
+        <v>1771</v>
       </c>
       <c r="O299">
         <v>0</v>
@@ -20188,7 +20187,7 @@
         <v>423</v>
       </c>
       <c r="N300" t="s">
-        <v>1820</v>
+        <v>1772</v>
       </c>
       <c r="O300">
         <v>0</v>
@@ -20235,7 +20234,7 @@
         <v>307</v>
       </c>
       <c r="N301" t="s">
-        <v>1821</v>
+        <v>1773</v>
       </c>
       <c r="O301">
         <v>0</v>
@@ -20282,7 +20281,7 @@
         <v>361</v>
       </c>
       <c r="N302" t="s">
-        <v>1822</v>
+        <v>1774</v>
       </c>
       <c r="O302">
         <v>1</v>
@@ -20329,7 +20328,7 @@
         <v>632</v>
       </c>
       <c r="N303" t="s">
-        <v>1823</v>
+        <v>1775</v>
       </c>
       <c r="O303">
         <v>0</v>
@@ -20376,7 +20375,7 @@
         <v>544</v>
       </c>
       <c r="N304" t="s">
-        <v>1824</v>
+        <v>1776</v>
       </c>
       <c r="O304">
         <v>0</v>
@@ -20423,7 +20422,7 @@
         <v>466</v>
       </c>
       <c r="N305" t="s">
-        <v>1825</v>
+        <v>1777</v>
       </c>
       <c r="O305">
         <v>0</v>
@@ -20470,7 +20469,7 @@
         <v>399</v>
       </c>
       <c r="N306" t="s">
-        <v>1826</v>
+        <v>1778</v>
       </c>
       <c r="O306">
         <v>0</v>
@@ -20517,7 +20516,7 @@
         <v>680</v>
       </c>
       <c r="N307" t="s">
-        <v>1827</v>
+        <v>1779</v>
       </c>
       <c r="O307">
         <v>0</v>
@@ -20564,7 +20563,7 @@
         <v>307</v>
       </c>
       <c r="N308" t="s">
-        <v>1828</v>
+        <v>1780</v>
       </c>
       <c r="O308">
         <v>1</v>
@@ -20611,7 +20610,7 @@
         <v>353</v>
       </c>
       <c r="N309" t="s">
-        <v>1829</v>
+        <v>1781</v>
       </c>
       <c r="O309">
         <v>0</v>
@@ -20658,7 +20657,7 @@
         <v>891</v>
       </c>
       <c r="N310" t="s">
-        <v>1830</v>
+        <v>1782</v>
       </c>
       <c r="O310">
         <v>0</v>
@@ -20705,7 +20704,7 @@
         <v>176</v>
       </c>
       <c r="N311" t="s">
-        <v>1831</v>
+        <v>1783</v>
       </c>
       <c r="O311">
         <v>0</v>
@@ -20752,7 +20751,7 @@
         <v>423</v>
       </c>
       <c r="N312" t="s">
-        <v>1832</v>
+        <v>1784</v>
       </c>
       <c r="O312">
         <v>0</v>
@@ -20799,7 +20798,7 @@
         <v>367</v>
       </c>
       <c r="N313" t="s">
-        <v>1833</v>
+        <v>1785</v>
       </c>
       <c r="O313">
         <v>0</v>
@@ -20846,7 +20845,7 @@
         <v>346</v>
       </c>
       <c r="N314" t="s">
-        <v>1834</v>
+        <v>1786</v>
       </c>
       <c r="O314">
         <v>0</v>
@@ -20893,7 +20892,7 @@
         <v>474</v>
       </c>
       <c r="N315" t="s">
-        <v>1835</v>
+        <v>1787</v>
       </c>
       <c r="O315">
         <v>0</v>
@@ -20940,7 +20939,7 @@
         <v>466</v>
       </c>
       <c r="N316" t="s">
-        <v>1836</v>
+        <v>1788</v>
       </c>
       <c r="O316">
         <v>0</v>
@@ -20987,7 +20986,7 @@
         <v>399</v>
       </c>
       <c r="N317" t="s">
-        <v>1837</v>
+        <v>1789</v>
       </c>
       <c r="O317">
         <v>0</v>
@@ -21034,7 +21033,7 @@
         <v>407</v>
       </c>
       <c r="N318" t="s">
-        <v>1838</v>
+        <v>1790</v>
       </c>
       <c r="O318">
         <v>0</v>
@@ -21081,7 +21080,7 @@
         <v>567</v>
       </c>
       <c r="N319" t="s">
-        <v>1839</v>
+        <v>1791</v>
       </c>
       <c r="O319">
         <v>0</v>
@@ -21128,7 +21127,7 @@
         <v>466</v>
       </c>
       <c r="N320" t="s">
-        <v>1840</v>
+        <v>1792</v>
       </c>
       <c r="O320">
         <v>0</v>
@@ -21175,7 +21174,7 @@
         <v>423</v>
       </c>
       <c r="N321" t="s">
-        <v>1841</v>
+        <v>1793</v>
       </c>
       <c r="O321">
         <v>0</v>
@@ -21222,7 +21221,7 @@
         <v>415</v>
       </c>
       <c r="N322" t="s">
-        <v>1842</v>
+        <v>1794</v>
       </c>
       <c r="O322">
         <v>0</v>
@@ -21269,7 +21268,7 @@
         <v>460</v>
       </c>
       <c r="N323" t="s">
-        <v>1843</v>
+        <v>1795</v>
       </c>
       <c r="O323">
         <v>0</v>
@@ -21316,7 +21315,7 @@
         <v>656</v>
       </c>
       <c r="N324" t="s">
-        <v>1844</v>
+        <v>1796</v>
       </c>
       <c r="O324">
         <v>0</v>
@@ -21363,7 +21362,7 @@
         <v>460</v>
       </c>
       <c r="N325" t="s">
-        <v>1845</v>
+        <v>1797</v>
       </c>
       <c r="O325">
         <v>0</v>
@@ -21410,7 +21409,7 @@
         <v>561</v>
       </c>
       <c r="N326" t="s">
-        <v>1846</v>
+        <v>1798</v>
       </c>
       <c r="O326">
         <v>0</v>
@@ -21457,7 +21456,7 @@
         <v>632</v>
       </c>
       <c r="N327" t="s">
-        <v>1847</v>
+        <v>1799</v>
       </c>
       <c r="O327">
         <v>0</v>
@@ -21504,7 +21503,7 @@
         <v>69</v>
       </c>
       <c r="N328" t="s">
-        <v>1848</v>
+        <v>1800</v>
       </c>
       <c r="O328">
         <v>0</v>
@@ -21551,7 +21550,7 @@
         <v>561</v>
       </c>
       <c r="N329" t="s">
-        <v>1849</v>
+        <v>1801</v>
       </c>
       <c r="O329">
         <v>0</v>
@@ -21598,7 +21597,7 @@
         <v>367</v>
       </c>
       <c r="N330" t="s">
-        <v>1850</v>
+        <v>1802</v>
       </c>
       <c r="O330">
         <v>1</v>
@@ -21645,7 +21644,7 @@
         <v>407</v>
       </c>
       <c r="N331" t="s">
-        <v>1851</v>
+        <v>1803</v>
       </c>
       <c r="O331">
         <v>0</v>
@@ -21692,7 +21691,7 @@
         <v>375</v>
       </c>
       <c r="N332" t="s">
-        <v>1852</v>
+        <v>1804</v>
       </c>
       <c r="O332">
         <v>0</v>
@@ -21739,7 +21738,7 @@
         <v>82</v>
       </c>
       <c r="N333" t="s">
-        <v>1853</v>
+        <v>1805</v>
       </c>
       <c r="O333">
         <v>0</v>
@@ -21786,7 +21785,7 @@
         <v>597</v>
       </c>
       <c r="N334" t="s">
-        <v>1854</v>
+        <v>1806</v>
       </c>
       <c r="O334">
         <v>0</v>
@@ -21833,7 +21832,7 @@
         <v>439</v>
       </c>
       <c r="N335" t="s">
-        <v>1855</v>
+        <v>1807</v>
       </c>
       <c r="O335">
         <v>0</v>
@@ -21880,7 +21879,7 @@
         <v>680</v>
       </c>
       <c r="N336" t="s">
-        <v>1856</v>
+        <v>1808</v>
       </c>
       <c r="O336">
         <v>0</v>
@@ -21927,7 +21926,7 @@
         <v>273</v>
       </c>
       <c r="N337" t="s">
-        <v>1857</v>
+        <v>1809</v>
       </c>
       <c r="O337">
         <v>0</v>
@@ -21974,7 +21973,7 @@
         <v>367</v>
       </c>
       <c r="N338" t="s">
-        <v>1858</v>
+        <v>1810</v>
       </c>
       <c r="O338">
         <v>0</v>
@@ -22021,7 +22020,7 @@
         <v>656</v>
       </c>
       <c r="N339" t="s">
-        <v>1859</v>
+        <v>1811</v>
       </c>
       <c r="O339">
         <v>0</v>
@@ -22068,7 +22067,7 @@
         <v>77</v>
       </c>
       <c r="N340" t="s">
-        <v>1860</v>
+        <v>1812</v>
       </c>
       <c r="O340">
         <v>0</v>
@@ -22115,7 +22114,7 @@
         <v>680</v>
       </c>
       <c r="N341" t="s">
-        <v>1861</v>
+        <v>1813</v>
       </c>
       <c r="O341">
         <v>0</v>
@@ -22162,7 +22161,7 @@
         <v>544</v>
       </c>
       <c r="N342" t="s">
-        <v>1862</v>
+        <v>1814</v>
       </c>
       <c r="O342">
         <v>0</v>
@@ -22209,7 +22208,7 @@
         <v>346</v>
       </c>
       <c r="N343" t="s">
-        <v>1863</v>
+        <v>1815</v>
       </c>
       <c r="O343">
         <v>0</v>
@@ -22256,7 +22255,7 @@
         <v>407</v>
       </c>
       <c r="N344" t="s">
-        <v>1864</v>
+        <v>1816</v>
       </c>
       <c r="O344">
         <v>0</v>
@@ -22303,7 +22302,7 @@
         <v>407</v>
       </c>
       <c r="N345" t="s">
-        <v>1865</v>
+        <v>1817</v>
       </c>
       <c r="O345">
         <v>0</v>
@@ -22350,7 +22349,7 @@
         <v>632</v>
       </c>
       <c r="N346" t="s">
-        <v>1866</v>
+        <v>1818</v>
       </c>
       <c r="O346">
         <v>0</v>
@@ -22397,7 +22396,7 @@
         <v>307</v>
       </c>
       <c r="N347" t="s">
-        <v>1867</v>
+        <v>1819</v>
       </c>
       <c r="O347">
         <v>0</v>
@@ -22444,7 +22443,7 @@
         <v>474</v>
       </c>
       <c r="N348" t="s">
-        <v>1868</v>
+        <v>1820</v>
       </c>
       <c r="O348">
         <v>0</v>
@@ -22491,7 +22490,7 @@
         <v>544</v>
       </c>
       <c r="N349" t="s">
-        <v>1869</v>
+        <v>1821</v>
       </c>
       <c r="O349">
         <v>0</v>
@@ -22538,7 +22537,7 @@
         <v>466</v>
       </c>
       <c r="N350" t="s">
-        <v>1870</v>
+        <v>1822</v>
       </c>
       <c r="O350">
         <v>0</v>
@@ -22585,7 +22584,7 @@
         <v>367</v>
       </c>
       <c r="N351" t="s">
-        <v>1871</v>
+        <v>1823</v>
       </c>
       <c r="O351">
         <v>0</v>
@@ -22632,7 +22631,7 @@
         <v>399</v>
       </c>
       <c r="N352" t="s">
-        <v>1872</v>
+        <v>1824</v>
       </c>
       <c r="O352">
         <v>0</v>
@@ -22679,7 +22678,7 @@
         <v>597</v>
       </c>
       <c r="N353" t="s">
-        <v>1873</v>
+        <v>1825</v>
       </c>
       <c r="O353">
         <v>0</v>
@@ -22726,7 +22725,7 @@
         <v>353</v>
       </c>
       <c r="N354" t="s">
-        <v>1874</v>
+        <v>1826</v>
       </c>
       <c r="O354">
         <v>0</v>
@@ -22773,7 +22772,7 @@
         <v>474</v>
       </c>
       <c r="N355" t="s">
-        <v>1875</v>
+        <v>1827</v>
       </c>
       <c r="O355">
         <v>0</v>
@@ -22820,7 +22819,7 @@
         <v>432</v>
       </c>
       <c r="N356" t="s">
-        <v>1876</v>
+        <v>1828</v>
       </c>
       <c r="O356">
         <v>0</v>
@@ -22867,7 +22866,7 @@
         <v>353</v>
       </c>
       <c r="N357" t="s">
-        <v>1877</v>
+        <v>1829</v>
       </c>
       <c r="O357">
         <v>0</v>
@@ -22914,7 +22913,7 @@
         <v>567</v>
       </c>
       <c r="N358" t="s">
-        <v>1878</v>
+        <v>1830</v>
       </c>
       <c r="O358">
         <v>0</v>
@@ -22961,7 +22960,7 @@
         <v>439</v>
       </c>
       <c r="N359" t="s">
-        <v>1879</v>
+        <v>1831</v>
       </c>
       <c r="O359">
         <v>0</v>
@@ -23008,7 +23007,7 @@
         <v>361</v>
       </c>
       <c r="N360" t="s">
-        <v>1880</v>
+        <v>1832</v>
       </c>
       <c r="O360">
         <v>0</v>
@@ -23055,7 +23054,7 @@
         <v>466</v>
       </c>
       <c r="N361" t="s">
-        <v>1881</v>
+        <v>1833</v>
       </c>
       <c r="O361">
         <v>0</v>
@@ -23102,7 +23101,7 @@
         <v>656</v>
       </c>
       <c r="N362" t="s">
-        <v>1882</v>
+        <v>1834</v>
       </c>
       <c r="O362">
         <v>0</v>
@@ -23149,7 +23148,7 @@
         <v>407</v>
       </c>
       <c r="N363" t="s">
-        <v>1883</v>
+        <v>1835</v>
       </c>
       <c r="O363">
         <v>0</v>
@@ -23196,7 +23195,7 @@
         <v>460</v>
       </c>
       <c r="N364" t="s">
-        <v>1884</v>
+        <v>1836</v>
       </c>
       <c r="O364">
         <v>1</v>
@@ -23210,11 +23209,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -24216,29 +24223,241 @@
         <v>1329</v>
       </c>
     </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1329</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1330</v>
       </c>
       <c r="D1" t="s">
         <v>1331</v>
@@ -24255,10 +24474,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1334</v>
       </c>
       <c r="D2">
         <v>14</v>
@@ -24272,13 +24491,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C3" t="s">
         <v>1335</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1336</v>
       </c>
       <c r="D3">
         <v>14</v>
@@ -24292,13 +24511,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C4" t="s">
         <v>1337</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1338</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -24312,13 +24531,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1339</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -24332,13 +24551,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C6" t="s">
         <v>339</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1341</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -24352,13 +24571,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C7" t="s">
         <v>755</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1343</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -24372,13 +24591,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C8" t="s">
         <v>517</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1344</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -24392,13 +24611,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C9" t="s">
         <v>476</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1345</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -24412,13 +24631,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C10" t="s">
         <v>675</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1347</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -24432,13 +24651,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C11" t="s">
         <v>468</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1348</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -24452,13 +24671,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C12" t="s">
         <v>355</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1349</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -24472,13 +24691,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C13" t="s">
         <v>746</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1351</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -24492,13 +24711,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C14" t="s">
         <v>392</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1352</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -24512,13 +24731,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C15" t="s">
         <v>425</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1353</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -24532,13 +24751,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C16" t="s">
         <v>401</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1354</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -24552,13 +24771,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C17" t="s">
         <v>377</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1355</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -24572,13 +24791,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C18" t="s">
         <v>619</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1356</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -24592,13 +24811,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C19" t="s">
         <v>592</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1357</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -24612,13 +24831,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C20" t="s">
         <v>586</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1358</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -24632,13 +24851,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C21" t="s">
         <v>783</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1359</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -24652,13 +24871,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C22" t="s">
         <v>409</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1360</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -24672,13 +24891,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C23" t="s">
         <v>764</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1361</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -24692,13 +24911,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C24" t="s">
         <v>441</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1362</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -24712,13 +24931,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C25" t="s">
         <v>546</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1364</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -24732,13 +24951,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C26" t="s">
         <v>879</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1365</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -24752,13 +24971,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C27" t="s">
         <v>603</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1366</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -24772,13 +24991,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C28" t="s">
         <v>792</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1367</v>
       </c>
       <c r="D28">
         <v>7</v>
@@ -24792,13 +25011,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C29" t="s">
         <v>417</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1368</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -24812,13 +25031,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C30" t="s">
         <v>434</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1369</v>
       </c>
       <c r="D30">
         <v>6</v>
@@ -24832,13 +25051,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C31" t="s">
         <v>629</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1370</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -24852,13 +25071,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C32" t="s">
         <v>533</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1371</v>
       </c>
       <c r="D32">
         <v>7</v>
@@ -24872,13 +25091,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C33" t="s">
         <v>932</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1372</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -24892,13 +25111,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C34" t="s">
         <v>494</v>
-      </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1373</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -24912,13 +25131,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C35" t="s">
         <v>448</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1374</v>
       </c>
       <c r="D35">
         <v>8</v>
@@ -24932,13 +25151,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C36" t="s">
         <v>332</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1375</v>
       </c>
       <c r="D36">
         <v>7</v>
@@ -24952,13 +25171,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C37" t="s">
         <v>958</v>
-      </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1376</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -24972,13 +25191,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C38" t="s">
         <v>646</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1377</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -24992,13 +25211,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C39" t="s">
         <v>699</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1378</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -25012,13 +25231,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C40" t="s">
         <v>369</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1379</v>
       </c>
       <c r="D40">
         <v>6</v>
@@ -25032,13 +25251,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C41" t="s">
         <v>634</v>
-      </c>
-      <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1380</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -25052,13 +25271,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C42" t="s">
         <v>488</v>
-      </c>
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1381</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -25072,13 +25291,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C43" t="s">
         <v>610</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1383</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -25092,13 +25311,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C44" t="s">
         <v>801</v>
-      </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1384</v>
       </c>
       <c r="D44">
         <v>8</v>
@@ -25112,13 +25331,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C45" t="s">
         <v>502</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1385</v>
       </c>
       <c r="D45">
         <v>5</v>
@@ -25132,13 +25351,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C46" t="s">
         <v>555</v>
-      </c>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1386</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -25152,13 +25371,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C47" t="s">
         <v>876</v>
-      </c>
-      <c r="B47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1387</v>
       </c>
       <c r="D47">
         <v>6</v>
@@ -25172,13 +25391,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C48" t="s">
         <v>363</v>
-      </c>
-      <c r="B48" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1388</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -25192,13 +25411,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C49" t="s">
         <v>720</v>
-      </c>
-      <c r="B49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1389</v>
       </c>
       <c r="D49">
         <v>12</v>
@@ -25212,13 +25431,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C50" t="s">
         <v>348</v>
-      </c>
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1390</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -25232,13 +25451,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C51" t="s">
         <v>525</v>
-      </c>
-      <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1391</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -25252,13 +25471,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C52" t="s">
         <v>385</v>
-      </c>
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1392</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -25270,2507 +25489,3063 @@
         <v>1340</v>
       </c>
     </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D55" s="3">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>13</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D56" s="3">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D57" s="3">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>13</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D58" s="4">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>4.5</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D59" s="3">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>29</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D60" s="4">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D61" s="3">
+        <v>7</v>
+      </c>
+      <c r="E61">
+        <v>22</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:C259"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="A239" sqref="A239:A259"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="17" max="17" width="43.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>1394</v>
+        <v>801</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>1394</v>
+        <v>801</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C4" t="s">
         <v>1394</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1396</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>1394</v>
+        <v>801</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1397</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>1394</v>
+        <v>801</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1398</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>1394</v>
+        <v>801</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>1399</v>
+        <v>801</v>
       </c>
       <c r="C8" t="s">
-        <v>339</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>1399</v>
+        <v>801</v>
       </c>
       <c r="C9" t="s">
-        <v>339</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>1399</v>
+        <v>610</v>
       </c>
       <c r="C10" t="s">
-        <v>339</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1400</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>1401</v>
+        <v>610</v>
       </c>
       <c r="C11" t="s">
-        <v>755</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1402</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>1401</v>
+        <v>610</v>
       </c>
       <c r="C12" t="s">
-        <v>755</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1403</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1401</v>
+        <v>610</v>
       </c>
       <c r="C13" t="s">
-        <v>755</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1404</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1401</v>
+        <v>792</v>
       </c>
       <c r="C14" t="s">
-        <v>755</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1405</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>1401</v>
+        <v>792</v>
       </c>
       <c r="C15" t="s">
-        <v>755</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>1406</v>
+        <v>792</v>
       </c>
       <c r="C16" t="s">
-        <v>517</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>1406</v>
+        <v>792</v>
       </c>
       <c r="C17" t="s">
-        <v>517</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>1407</v>
+        <v>792</v>
       </c>
       <c r="C18" t="s">
-        <v>476</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>1407</v>
+        <v>792</v>
       </c>
       <c r="C19" t="s">
-        <v>476</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>1408</v>
+        <v>792</v>
       </c>
       <c r="C20" t="s">
-        <v>675</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1398</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>1408</v>
+        <v>546</v>
       </c>
       <c r="C21" t="s">
-        <v>675</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>1408</v>
+        <v>546</v>
       </c>
       <c r="C22" t="s">
-        <v>675</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>1408</v>
+        <v>546</v>
       </c>
       <c r="C23" t="s">
-        <v>675</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1409</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>1408</v>
+        <v>546</v>
       </c>
       <c r="C24" t="s">
-        <v>675</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1396</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>1408</v>
+        <v>546</v>
       </c>
       <c r="C25" t="s">
-        <v>675</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1397</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>1408</v>
+        <v>332</v>
       </c>
       <c r="C26" t="s">
-        <v>675</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>332</v>
+      </c>
+      <c r="C27" t="s">
         <v>1393</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C27" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>1410</v>
+        <v>332</v>
       </c>
       <c r="C28" t="s">
-        <v>468</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" t="s">
         <v>1395</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C29" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>1411</v>
+        <v>332</v>
       </c>
       <c r="C30" t="s">
-        <v>355</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>1411</v>
+        <v>332</v>
       </c>
       <c r="C31" t="s">
-        <v>355</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1396</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>1412</v>
+        <v>332</v>
       </c>
       <c r="C32" t="s">
-        <v>746</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1397</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>1412</v>
+        <v>377</v>
       </c>
       <c r="C33" t="s">
-        <v>746</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>377</v>
+      </c>
+      <c r="C34" t="s">
         <v>1393</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C34" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>1412</v>
+        <v>879</v>
       </c>
       <c r="C35" t="s">
-        <v>746</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1398</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>1412</v>
+        <v>879</v>
       </c>
       <c r="C36" t="s">
-        <v>746</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>1412</v>
+        <v>425</v>
       </c>
       <c r="C37" t="s">
-        <v>746</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1413</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C38" t="s">
         <v>1414</v>
-      </c>
-      <c r="C38" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1415</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>1414</v>
+        <v>425</v>
       </c>
       <c r="C39" t="s">
-        <v>392</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>425</v>
+      </c>
+      <c r="C40" t="s">
         <v>1416</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C40" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1417</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>1414</v>
+        <v>448</v>
       </c>
       <c r="C41" t="s">
-        <v>392</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1418</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>1414</v>
+        <v>448</v>
       </c>
       <c r="C42" t="s">
-        <v>392</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1419</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>1414</v>
+        <v>448</v>
       </c>
       <c r="C43" t="s">
-        <v>392</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1420</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>1414</v>
+        <v>448</v>
       </c>
       <c r="C44" t="s">
-        <v>392</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1421</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>1414</v>
+        <v>448</v>
       </c>
       <c r="C45" t="s">
-        <v>392</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1422</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>1414</v>
+        <v>448</v>
       </c>
       <c r="C46" t="s">
-        <v>392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1423</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>1414</v>
+        <v>448</v>
       </c>
       <c r="C47" t="s">
-        <v>392</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1424</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>1425</v>
+        <v>448</v>
       </c>
       <c r="C48" t="s">
-        <v>425</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1426</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>1425</v>
+        <v>502</v>
       </c>
       <c r="C49" t="s">
-        <v>425</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1427</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>1425</v>
+        <v>502</v>
       </c>
       <c r="C50" t="s">
-        <v>425</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1428</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>1425</v>
+        <v>502</v>
       </c>
       <c r="C51" t="s">
-        <v>425</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1405</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>1429</v>
+        <v>502</v>
       </c>
       <c r="C52" t="s">
-        <v>401</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1403</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>1429</v>
+        <v>502</v>
       </c>
       <c r="C53" t="s">
-        <v>401</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>1430</v>
+        <v>629</v>
       </c>
       <c r="C54" t="s">
-        <v>377</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>1430</v>
+        <v>629</v>
       </c>
       <c r="C55" t="s">
-        <v>377</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1396</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>1431</v>
+        <v>629</v>
       </c>
       <c r="C56" t="s">
-        <v>619</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>1431</v>
+        <v>629</v>
       </c>
       <c r="C57" t="s">
-        <v>619</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>1431</v>
+        <v>392</v>
       </c>
       <c r="C58" t="s">
-        <v>619</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>1431</v>
+        <v>392</v>
       </c>
       <c r="C59" t="s">
-        <v>619</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1405</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>1432</v>
+        <v>392</v>
       </c>
       <c r="C60" t="s">
-        <v>592</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1404</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>1432</v>
+        <v>392</v>
       </c>
       <c r="C61" t="s">
-        <v>592</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1400</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>1432</v>
+        <v>392</v>
       </c>
       <c r="C62" t="s">
-        <v>592</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1403</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>1432</v>
+        <v>392</v>
       </c>
       <c r="C63" t="s">
-        <v>592</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1403</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>1433</v>
+        <v>392</v>
       </c>
       <c r="C64" t="s">
-        <v>586</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1405</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>1433</v>
+        <v>392</v>
       </c>
       <c r="C65" t="s">
-        <v>586</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1434</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>1435</v>
+        <v>392</v>
       </c>
       <c r="C66" t="s">
-        <v>783</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1436</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>1435</v>
+        <v>392</v>
       </c>
       <c r="C67" t="s">
-        <v>783</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1437</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>1435</v>
+        <v>409</v>
       </c>
       <c r="C68" t="s">
-        <v>783</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1438</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>1435</v>
+        <v>409</v>
       </c>
       <c r="C69" t="s">
-        <v>783</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1397</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>1439</v>
+        <v>409</v>
       </c>
       <c r="C70" t="s">
-        <v>409</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>1439</v>
+        <v>409</v>
       </c>
       <c r="C71" t="s">
-        <v>409</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>1439</v>
+        <v>409</v>
       </c>
       <c r="C72" t="s">
-        <v>409</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1396</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>1439</v>
+        <v>339</v>
       </c>
       <c r="C73" t="s">
-        <v>409</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>339</v>
+      </c>
+      <c r="C74" t="s">
         <v>1393</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C74" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1405</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>1440</v>
+        <v>339</v>
       </c>
       <c r="C75" t="s">
-        <v>764</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1403</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>1440</v>
+        <v>699</v>
       </c>
       <c r="C76" t="s">
-        <v>764</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1404</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>1440</v>
+        <v>699</v>
       </c>
       <c r="C77" t="s">
-        <v>764</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>1440</v>
+        <v>699</v>
       </c>
       <c r="C78" t="s">
-        <v>764</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1400</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>1440</v>
+        <v>699</v>
       </c>
       <c r="C79" t="s">
-        <v>764</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>1441</v>
+        <v>355</v>
       </c>
       <c r="C80" t="s">
-        <v>441</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>355</v>
+      </c>
+      <c r="C81" t="s">
         <v>1393</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C81" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>1441</v>
+        <v>355</v>
       </c>
       <c r="C82" t="s">
-        <v>441</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1396</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>1442</v>
+        <v>746</v>
       </c>
       <c r="C83" t="s">
-        <v>546</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>1442</v>
+        <v>746</v>
       </c>
       <c r="C84" t="s">
-        <v>546</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>1442</v>
+        <v>746</v>
       </c>
       <c r="C85" t="s">
-        <v>546</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>1442</v>
+        <v>746</v>
       </c>
       <c r="C86" t="s">
-        <v>546</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1443</v>
+        <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>1442</v>
+        <v>746</v>
       </c>
       <c r="C87" t="s">
-        <v>546</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>1444</v>
+        <v>746</v>
       </c>
       <c r="C88" t="s">
-        <v>879</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>1444</v>
+        <v>476</v>
       </c>
       <c r="C89" t="s">
-        <v>879</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>476</v>
+      </c>
+      <c r="C90" t="s">
         <v>1393</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C90" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>1445</v>
+        <v>494</v>
       </c>
       <c r="C91" t="s">
-        <v>603</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1396</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>1445</v>
+        <v>494</v>
       </c>
       <c r="C92" t="s">
-        <v>603</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>1445</v>
+        <v>494</v>
       </c>
       <c r="C93" t="s">
-        <v>603</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1446</v>
+        <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>1447</v>
+        <v>494</v>
       </c>
       <c r="C94" t="s">
-        <v>792</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1397</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>1447</v>
+        <v>720</v>
       </c>
       <c r="C95" t="s">
-        <v>792</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1396</v>
+        <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>1447</v>
+        <v>720</v>
       </c>
       <c r="C96" t="s">
-        <v>792</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1448</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>1447</v>
+        <v>720</v>
       </c>
       <c r="C97" t="s">
-        <v>792</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>1447</v>
+        <v>720</v>
       </c>
       <c r="C98" t="s">
-        <v>792</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>1447</v>
+        <v>720</v>
       </c>
       <c r="C99" t="s">
-        <v>792</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>1447</v>
+        <v>720</v>
       </c>
       <c r="C100" t="s">
-        <v>792</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1449</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>1450</v>
+        <v>720</v>
       </c>
       <c r="C101" t="s">
-        <v>417</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1451</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>1450</v>
+        <v>720</v>
       </c>
       <c r="C102" t="s">
-        <v>417</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1452</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>1450</v>
+        <v>720</v>
       </c>
       <c r="C103" t="s">
-        <v>417</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1453</v>
+        <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>1450</v>
+        <v>720</v>
       </c>
       <c r="C104" t="s">
-        <v>417</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1454</v>
+        <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>1450</v>
+        <v>720</v>
       </c>
       <c r="C105" t="s">
-        <v>417</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1455</v>
+        <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>1450</v>
+        <v>720</v>
       </c>
       <c r="C106" t="s">
-        <v>417</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1456</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>1450</v>
+        <v>592</v>
       </c>
       <c r="C107" t="s">
-        <v>417</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1457</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>1458</v>
+        <v>592</v>
       </c>
       <c r="C108" t="s">
-        <v>434</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1424</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>1458</v>
+        <v>592</v>
       </c>
       <c r="C109" t="s">
-        <v>434</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1459</v>
+        <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>1458</v>
+        <v>592</v>
       </c>
       <c r="C110" t="s">
-        <v>434</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1426</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>1458</v>
+        <v>619</v>
       </c>
       <c r="C111" t="s">
-        <v>434</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1460</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>1458</v>
+        <v>619</v>
       </c>
       <c r="C112" t="s">
-        <v>434</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1461</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>1462</v>
+        <v>619</v>
       </c>
       <c r="C113" t="s">
-        <v>629</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1424</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>1462</v>
+        <v>619</v>
       </c>
       <c r="C114" t="s">
-        <v>629</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1426</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>1462</v>
+        <v>603</v>
       </c>
       <c r="C115" t="s">
-        <v>629</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1460</v>
+        <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>1462</v>
+        <v>603</v>
       </c>
       <c r="C116" t="s">
-        <v>629</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1463</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>1464</v>
+        <v>603</v>
       </c>
       <c r="C117" t="s">
-        <v>533</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1465</v>
+        <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>1464</v>
+        <v>603</v>
       </c>
       <c r="C118" t="s">
-        <v>533</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1466</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>1464</v>
+        <v>441</v>
       </c>
       <c r="C119" t="s">
-        <v>533</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1467</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>1464</v>
+        <v>441</v>
       </c>
       <c r="C120" t="s">
-        <v>533</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1468</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>1464</v>
+        <v>441</v>
       </c>
       <c r="C121" t="s">
-        <v>533</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1469</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>1464</v>
+        <v>434</v>
       </c>
       <c r="C122" t="s">
-        <v>533</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1470</v>
+        <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>1464</v>
+        <v>434</v>
       </c>
       <c r="C123" t="s">
-        <v>533</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>1471</v>
+        <v>434</v>
       </c>
       <c r="C124" t="s">
-        <v>932</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>1471</v>
+        <v>434</v>
       </c>
       <c r="C125" t="s">
-        <v>932</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>1471</v>
+        <v>434</v>
       </c>
       <c r="C126" t="s">
-        <v>932</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1396</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>1471</v>
+        <v>958</v>
       </c>
       <c r="C127" t="s">
-        <v>932</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>1472</v>
+        <v>958</v>
       </c>
       <c r="C128" t="s">
-        <v>494</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>1472</v>
+        <v>958</v>
       </c>
       <c r="C129" t="s">
-        <v>494</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>1472</v>
+        <v>958</v>
       </c>
       <c r="C130" t="s">
-        <v>494</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1396</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>1472</v>
+        <v>646</v>
       </c>
       <c r="C131" t="s">
-        <v>494</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>1473</v>
+        <v>646</v>
       </c>
       <c r="C132" t="s">
-        <v>448</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>1473</v>
+        <v>646</v>
       </c>
       <c r="C133" t="s">
-        <v>448</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1397</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>1473</v>
+        <v>646</v>
       </c>
       <c r="C134" t="s">
-        <v>448</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" t="s">
+        <v>646</v>
+      </c>
+      <c r="C135" t="s">
         <v>1396</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C135" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>1473</v>
+        <v>646</v>
       </c>
       <c r="C136" t="s">
-        <v>448</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1409</v>
+        <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>1473</v>
+        <v>348</v>
       </c>
       <c r="C137" t="s">
-        <v>448</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1398</v>
+        <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>1473</v>
+        <v>348</v>
       </c>
       <c r="C138" t="s">
-        <v>448</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1474</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>1473</v>
+        <v>348</v>
       </c>
       <c r="C139" t="s">
-        <v>448</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1475</v>
+        <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>1476</v>
+        <v>38</v>
       </c>
       <c r="C140" t="s">
-        <v>332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1477</v>
+        <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>1476</v>
+        <v>38</v>
       </c>
       <c r="C141" t="s">
-        <v>332</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142" t="s">
         <v>1395</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C142" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>1476</v>
+        <v>38</v>
       </c>
       <c r="C143" t="s">
-        <v>332</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1397</v>
+        <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>1476</v>
+        <v>38</v>
       </c>
       <c r="C144" t="s">
-        <v>332</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1396</v>
+        <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>1476</v>
+        <v>38</v>
       </c>
       <c r="C145" t="s">
-        <v>332</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" t="s">
+        <v>363</v>
+      </c>
+      <c r="C146" t="s">
         <v>1329</v>
-      </c>
-      <c r="B146" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C146" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1478</v>
+        <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>1479</v>
+        <v>363</v>
       </c>
       <c r="C147" t="s">
-        <v>958</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1480</v>
+        <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>1479</v>
+        <v>363</v>
       </c>
       <c r="C148" t="s">
-        <v>958</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1481</v>
+        <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>1479</v>
+        <v>555</v>
       </c>
       <c r="C149" t="s">
-        <v>958</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1482</v>
+        <v>12</v>
       </c>
       <c r="B150" t="s">
-        <v>1479</v>
+        <v>555</v>
       </c>
       <c r="C150" t="s">
-        <v>958</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1398</v>
+        <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>1483</v>
+        <v>555</v>
       </c>
       <c r="C151" t="s">
-        <v>646</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" t="s">
+        <v>932</v>
+      </c>
+      <c r="C152" t="s">
         <v>1329</v>
-      </c>
-      <c r="B152" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C152" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1397</v>
+        <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>1483</v>
+        <v>932</v>
       </c>
       <c r="C153" t="s">
-        <v>646</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1396</v>
+        <v>12</v>
       </c>
       <c r="B154" t="s">
-        <v>1483</v>
+        <v>932</v>
       </c>
       <c r="C154" t="s">
-        <v>646</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" t="s">
+        <v>932</v>
+      </c>
+      <c r="C155" t="s">
         <v>1395</v>
-      </c>
-      <c r="B155" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C155" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B156" t="s">
-        <v>1483</v>
+        <v>525</v>
       </c>
       <c r="C156" t="s">
-        <v>646</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>1484</v>
+        <v>525</v>
       </c>
       <c r="C157" t="s">
-        <v>699</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>1484</v>
+        <v>525</v>
       </c>
       <c r="C158" t="s">
-        <v>699</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>1484</v>
+        <v>525</v>
       </c>
       <c r="C159" t="s">
-        <v>699</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1396</v>
+        <v>12</v>
       </c>
       <c r="B160" t="s">
-        <v>1484</v>
+        <v>488</v>
       </c>
       <c r="C160" t="s">
-        <v>699</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B161" t="s">
-        <v>1485</v>
+        <v>488</v>
       </c>
       <c r="C161" t="s">
-        <v>369</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>1485</v>
+        <v>488</v>
       </c>
       <c r="C162" t="s">
-        <v>369</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>1485</v>
+        <v>488</v>
       </c>
       <c r="C163" t="s">
-        <v>369</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1398</v>
+        <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>1485</v>
+        <v>783</v>
       </c>
       <c r="C164" t="s">
-        <v>369</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1396</v>
+        <v>12</v>
       </c>
       <c r="B165" t="s">
-        <v>1485</v>
+        <v>783</v>
       </c>
       <c r="C165" t="s">
-        <v>369</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1397</v>
+        <v>12</v>
       </c>
       <c r="B166" t="s">
-        <v>1485</v>
+        <v>783</v>
       </c>
       <c r="C166" t="s">
-        <v>369</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B167" t="s">
-        <v>1486</v>
+        <v>783</v>
       </c>
       <c r="C167" t="s">
-        <v>634</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>1486</v>
+        <v>369</v>
       </c>
       <c r="C168" t="s">
-        <v>634</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B169" t="s">
-        <v>1486</v>
+        <v>369</v>
       </c>
       <c r="C169" t="s">
-        <v>634</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B170" t="s">
-        <v>1487</v>
+        <v>369</v>
       </c>
       <c r="C170" t="s">
-        <v>488</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B171" t="s">
-        <v>1487</v>
+        <v>369</v>
       </c>
       <c r="C171" t="s">
-        <v>488</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>1487</v>
+        <v>369</v>
       </c>
       <c r="C172" t="s">
-        <v>488</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1396</v>
+        <v>12</v>
       </c>
       <c r="B173" t="s">
-        <v>1487</v>
+        <v>369</v>
       </c>
       <c r="C173" t="s">
-        <v>488</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B174" t="s">
-        <v>1488</v>
+        <v>385</v>
       </c>
       <c r="C174" t="s">
-        <v>610</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>1488</v>
+        <v>385</v>
       </c>
       <c r="C175" t="s">
-        <v>610</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>1488</v>
+        <v>385</v>
       </c>
       <c r="C176" t="s">
-        <v>610</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1489</v>
+        <v>12</v>
       </c>
       <c r="B177" t="s">
-        <v>1488</v>
+        <v>385</v>
       </c>
       <c r="C177" t="s">
-        <v>610</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1490</v>
+        <v>12</v>
       </c>
       <c r="B178" t="s">
-        <v>1491</v>
+        <v>385</v>
       </c>
       <c r="C178" t="s">
-        <v>801</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1492</v>
+        <v>12</v>
       </c>
       <c r="B179" t="s">
-        <v>1491</v>
+        <v>764</v>
       </c>
       <c r="C179" t="s">
-        <v>801</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B180" t="s">
-        <v>1491</v>
+        <v>764</v>
       </c>
       <c r="C180" t="s">
-        <v>801</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1398</v>
+        <v>12</v>
       </c>
       <c r="B181" t="s">
-        <v>1491</v>
+        <v>764</v>
       </c>
       <c r="C181" t="s">
-        <v>801</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B182" t="s">
-        <v>1491</v>
+        <v>764</v>
       </c>
       <c r="C182" t="s">
-        <v>801</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1493</v>
+        <v>12</v>
       </c>
       <c r="B183" t="s">
-        <v>1491</v>
+        <v>764</v>
       </c>
       <c r="C183" t="s">
-        <v>801</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B184" t="s">
-        <v>1491</v>
+        <v>517</v>
       </c>
       <c r="C184" t="s">
-        <v>801</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1494</v>
+        <v>12</v>
       </c>
       <c r="B185" t="s">
-        <v>1491</v>
+        <v>517</v>
       </c>
       <c r="C185" t="s">
-        <v>801</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1495</v>
+        <v>12</v>
       </c>
       <c r="B186" t="s">
-        <v>1496</v>
+        <v>586</v>
       </c>
       <c r="C186" t="s">
-        <v>502</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1419</v>
+        <v>12</v>
       </c>
       <c r="B187" t="s">
-        <v>1496</v>
+        <v>586</v>
       </c>
       <c r="C187" t="s">
-        <v>502</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1427</v>
+        <v>12</v>
       </c>
       <c r="B188" t="s">
-        <v>1496</v>
+        <v>401</v>
       </c>
       <c r="C188" t="s">
-        <v>502</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1497</v>
+        <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>1496</v>
+        <v>401</v>
       </c>
       <c r="C189" t="s">
-        <v>502</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1428</v>
+        <v>12</v>
       </c>
       <c r="B190" t="s">
-        <v>1496</v>
+        <v>533</v>
       </c>
       <c r="C190" t="s">
-        <v>502</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B191" t="s">
-        <v>1498</v>
+        <v>533</v>
       </c>
       <c r="C191" t="s">
-        <v>555</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B192" t="s">
-        <v>1498</v>
+        <v>533</v>
       </c>
       <c r="C192" t="s">
-        <v>555</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B193" t="s">
-        <v>1498</v>
+        <v>533</v>
       </c>
       <c r="C193" t="s">
-        <v>555</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1499</v>
+        <v>12</v>
       </c>
       <c r="B194" t="s">
-        <v>1500</v>
+        <v>533</v>
       </c>
       <c r="C194" t="s">
-        <v>876</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1501</v>
+        <v>12</v>
       </c>
       <c r="B195" t="s">
-        <v>1500</v>
+        <v>533</v>
       </c>
       <c r="C195" t="s">
-        <v>876</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1502</v>
+        <v>12</v>
       </c>
       <c r="B196" t="s">
-        <v>1500</v>
+        <v>533</v>
       </c>
       <c r="C196" t="s">
-        <v>876</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1503</v>
+        <v>12</v>
       </c>
       <c r="B197" t="s">
-        <v>1500</v>
+        <v>634</v>
       </c>
       <c r="C197" t="s">
-        <v>876</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1504</v>
+        <v>12</v>
       </c>
       <c r="B198" t="s">
-        <v>1500</v>
+        <v>634</v>
       </c>
       <c r="C198" t="s">
-        <v>876</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1505</v>
+        <v>12</v>
       </c>
       <c r="B199" t="s">
-        <v>1500</v>
+        <v>634</v>
       </c>
       <c r="C199" t="s">
-        <v>876</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B200" t="s">
-        <v>1506</v>
+        <v>876</v>
       </c>
       <c r="C200" t="s">
-        <v>363</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B201" t="s">
-        <v>1506</v>
+        <v>876</v>
       </c>
       <c r="C201" t="s">
-        <v>363</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B202" t="s">
-        <v>1506</v>
+        <v>876</v>
       </c>
       <c r="C202" t="s">
-        <v>363</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1507</v>
+        <v>12</v>
       </c>
       <c r="B203" t="s">
-        <v>1508</v>
+        <v>876</v>
       </c>
       <c r="C203" t="s">
-        <v>720</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1509</v>
+        <v>12</v>
       </c>
       <c r="B204" t="s">
-        <v>1508</v>
+        <v>876</v>
       </c>
       <c r="C204" t="s">
-        <v>720</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1510</v>
+        <v>12</v>
       </c>
       <c r="B205" t="s">
-        <v>1508</v>
+        <v>876</v>
       </c>
       <c r="C205" t="s">
-        <v>720</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1511</v>
+        <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>1508</v>
+        <v>417</v>
       </c>
       <c r="C206" t="s">
-        <v>720</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1512</v>
+        <v>12</v>
       </c>
       <c r="B207" t="s">
-        <v>1508</v>
+        <v>417</v>
       </c>
       <c r="C207" t="s">
-        <v>720</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1513</v>
+        <v>12</v>
       </c>
       <c r="B208" t="s">
-        <v>1508</v>
+        <v>417</v>
       </c>
       <c r="C208" t="s">
-        <v>720</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1514</v>
+        <v>12</v>
       </c>
       <c r="B209" t="s">
-        <v>1508</v>
+        <v>417</v>
       </c>
       <c r="C209" t="s">
-        <v>720</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1515</v>
+        <v>12</v>
       </c>
       <c r="B210" t="s">
-        <v>1508</v>
+        <v>417</v>
       </c>
       <c r="C210" t="s">
-        <v>720</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1516</v>
+        <v>12</v>
       </c>
       <c r="B211" t="s">
-        <v>1508</v>
+        <v>417</v>
       </c>
       <c r="C211" t="s">
-        <v>720</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1517</v>
+        <v>12</v>
       </c>
       <c r="B212" t="s">
-        <v>1508</v>
+        <v>417</v>
       </c>
       <c r="C212" t="s">
-        <v>720</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1518</v>
+        <v>12</v>
       </c>
       <c r="B213" t="s">
-        <v>1508</v>
+        <v>755</v>
       </c>
       <c r="C213" t="s">
-        <v>720</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1519</v>
+        <v>12</v>
       </c>
       <c r="B214" t="s">
-        <v>1508</v>
+        <v>755</v>
       </c>
       <c r="C214" t="s">
-        <v>720</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B215" t="s">
-        <v>1520</v>
+        <v>755</v>
       </c>
       <c r="C215" t="s">
-        <v>348</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B216" t="s">
-        <v>1520</v>
+        <v>755</v>
       </c>
       <c r="C216" t="s">
-        <v>348</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B217" t="s">
-        <v>1520</v>
+        <v>755</v>
       </c>
       <c r="C217" t="s">
-        <v>348</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1395</v>
+        <v>12</v>
       </c>
       <c r="B218" t="s">
-        <v>1521</v>
+        <v>675</v>
       </c>
       <c r="C218" t="s">
-        <v>525</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1329</v>
+        <v>12</v>
       </c>
       <c r="B219" t="s">
-        <v>1521</v>
+        <v>675</v>
       </c>
       <c r="C219" t="s">
-        <v>525</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1396</v>
+        <v>12</v>
       </c>
       <c r="B220" t="s">
-        <v>1521</v>
+        <v>675</v>
       </c>
       <c r="C220" t="s">
-        <v>525</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1393</v>
+        <v>12</v>
       </c>
       <c r="B221" t="s">
-        <v>1521</v>
+        <v>675</v>
       </c>
       <c r="C221" t="s">
-        <v>525</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1404</v>
+        <v>12</v>
       </c>
       <c r="B222" t="s">
-        <v>1522</v>
+        <v>675</v>
       </c>
       <c r="C222" t="s">
-        <v>385</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1403</v>
+        <v>12</v>
       </c>
       <c r="B223" t="s">
-        <v>1522</v>
+        <v>675</v>
       </c>
       <c r="C223" t="s">
-        <v>385</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1405</v>
+        <v>12</v>
       </c>
       <c r="B224" t="s">
-        <v>1522</v>
+        <v>675</v>
       </c>
       <c r="C224" t="s">
-        <v>385</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1402</v>
+        <v>12</v>
       </c>
       <c r="B225" t="s">
-        <v>1522</v>
+        <v>468</v>
       </c>
       <c r="C225" t="s">
-        <v>385</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>12</v>
+      </c>
+      <c r="B226" t="s">
+        <v>468</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C249" t="s">
         <v>1400</v>
       </c>
-      <c r="B226" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C226" t="s">
-        <v>385</v>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1444</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/MockData.xlsx
+++ b/MockData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB\Documents\R\Client-Elevator-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8326B9A-160C-4C2A-9FC5-EA92E73C58FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788C8BB4-6B7E-4533-9626-AA147D2A48A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17138" uniqueCount="2971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18463" uniqueCount="3061">
   <si>
     <t>ID_Client</t>
   </si>
@@ -8951,6 +8951,276 @@
   </si>
   <si>
     <t>NSueksl4kajfk4QE</t>
+  </si>
+  <si>
+    <t>a37QNtqJVVEnN432</t>
+  </si>
+  <si>
+    <t>gi9at9pPU6G1E932</t>
+  </si>
+  <si>
+    <t>P56JQS1ithgHUv32</t>
+  </si>
+  <si>
+    <t>Z13YKrsrbbmZtT32</t>
+  </si>
+  <si>
+    <t>ptzJ0J4PswWPwF32</t>
+  </si>
+  <si>
+    <t>7PUPgqBozehOW532</t>
+  </si>
+  <si>
+    <t>rMTScKDh6O4h3q32</t>
+  </si>
+  <si>
+    <t>44ghGSlBd32Fwn32</t>
+  </si>
+  <si>
+    <t>g0B3272OFhXkRS32</t>
+  </si>
+  <si>
+    <t>mCqfPXXPzktXP432</t>
+  </si>
+  <si>
+    <t>ICxxYXEYfH7xYe32</t>
+  </si>
+  <si>
+    <t>rTjw3nHIK4fxRB32</t>
+  </si>
+  <si>
+    <t>BDM1yX7w0RVctD32</t>
+  </si>
+  <si>
+    <t>RRM1yX7w0RVctD32</t>
+  </si>
+  <si>
+    <t>BGG1yX7w0RVctD32</t>
+  </si>
+  <si>
+    <t>sAx3Kpn9P3wBP733</t>
+  </si>
+  <si>
+    <t>LqmGqGOY3GLCAo33</t>
+  </si>
+  <si>
+    <t>yklcie2Ajd4a1m33</t>
+  </si>
+  <si>
+    <t>ABhLbcie3376YN33</t>
+  </si>
+  <si>
+    <t>SSC5ALEZlncZ6U33</t>
+  </si>
+  <si>
+    <t>DJQOudvzCucDgn33</t>
+  </si>
+  <si>
+    <t>5WESpjG8TvAD9h33</t>
+  </si>
+  <si>
+    <t>4fie2UnP4br1AU33</t>
+  </si>
+  <si>
+    <t>j71w76AiWuGaw533</t>
+  </si>
+  <si>
+    <t>0hgopFKL0XViT933</t>
+  </si>
+  <si>
+    <t>dC8jTRI3fg5MIx33</t>
+  </si>
+  <si>
+    <t>2Jw3EynyQjsRvn33</t>
+  </si>
+  <si>
+    <t>7QjYpoguzzcqUz33</t>
+  </si>
+  <si>
+    <t>dJRBKRSAKyDVuj33</t>
+  </si>
+  <si>
+    <t>dGBqHpwMrVqhzn33</t>
+  </si>
+  <si>
+    <t>a37QNtqJVVEnN433</t>
+  </si>
+  <si>
+    <t>gi9at9pPU6G1E933</t>
+  </si>
+  <si>
+    <t>P56JQS1ithgHUv33</t>
+  </si>
+  <si>
+    <t>Z13YKrsrbbmZtT33</t>
+  </si>
+  <si>
+    <t>ptzJ0J4PswWPwF33</t>
+  </si>
+  <si>
+    <t>7PUPgqBozehOW533</t>
+  </si>
+  <si>
+    <t>rMTScKDh6O4h3q33</t>
+  </si>
+  <si>
+    <t>44ghGSlBd33Fwn33</t>
+  </si>
+  <si>
+    <t>g0B3372OFhXkRS33</t>
+  </si>
+  <si>
+    <t>mCqfPXXPzktXP433</t>
+  </si>
+  <si>
+    <t>ICxxYXEYfH7xYe33</t>
+  </si>
+  <si>
+    <t>rTjw3nHIK4fxRB33</t>
+  </si>
+  <si>
+    <t>BDM1yX7w0RVctD33</t>
+  </si>
+  <si>
+    <t>RRM1yX7w0RVctD33</t>
+  </si>
+  <si>
+    <t>BGG1yX7w0RVctD33</t>
+  </si>
+  <si>
+    <t>sAx3Kpn9P3wBP734</t>
+  </si>
+  <si>
+    <t>LqmGqGOY3GLCAo34</t>
+  </si>
+  <si>
+    <t>yklcie2Ajd4a1m34</t>
+  </si>
+  <si>
+    <t>ABhLbcie3476YN34</t>
+  </si>
+  <si>
+    <t>SSC5ALEZlncZ6U34</t>
+  </si>
+  <si>
+    <t>DJQOudvzCucDgn34</t>
+  </si>
+  <si>
+    <t>5WESpjG8TvAD9h34</t>
+  </si>
+  <si>
+    <t>4fie2UnP4br1AU34</t>
+  </si>
+  <si>
+    <t>j71w76AiWuGaw534</t>
+  </si>
+  <si>
+    <t>0hgopFKL0XViT934</t>
+  </si>
+  <si>
+    <t>dC8jTRI3fg5MIx34</t>
+  </si>
+  <si>
+    <t>2Jw3EynyQjsRvn34</t>
+  </si>
+  <si>
+    <t>7QjYpoguzzcqUz34</t>
+  </si>
+  <si>
+    <t>dJRBKRSAKyDVuj34</t>
+  </si>
+  <si>
+    <t>dGBqHpwMrVqhzn34</t>
+  </si>
+  <si>
+    <t>a37QNtqJVVEnN434</t>
+  </si>
+  <si>
+    <t>gi9at9pPU6G1E934</t>
+  </si>
+  <si>
+    <t>P56JQS1ithgHUv34</t>
+  </si>
+  <si>
+    <t>Z13YKrsrbbmZtT34</t>
+  </si>
+  <si>
+    <t>ptzJ0J4PswWPwF34</t>
+  </si>
+  <si>
+    <t>7PUPgqBozehOW534</t>
+  </si>
+  <si>
+    <t>rMTScKDh6O4h3q34</t>
+  </si>
+  <si>
+    <t>44ghGSlBd34Fwn34</t>
+  </si>
+  <si>
+    <t>g0B3472OFhXkRS34</t>
+  </si>
+  <si>
+    <t>mCqfPXXPzktXP434</t>
+  </si>
+  <si>
+    <t>ICxxYXEYfH7xYe34</t>
+  </si>
+  <si>
+    <t>rTjw3nHIK4fxRB34</t>
+  </si>
+  <si>
+    <t>BDM1yX7w0RVctD34</t>
+  </si>
+  <si>
+    <t>RRM1yX7w0RVctD34</t>
+  </si>
+  <si>
+    <t>BGG1yX7w0RVctD34</t>
+  </si>
+  <si>
+    <t>sAx3Kpn9P3wBP735</t>
+  </si>
+  <si>
+    <t>LqmGqGOY3GLCAo35</t>
+  </si>
+  <si>
+    <t>yklcie2Ajd4a1m35</t>
+  </si>
+  <si>
+    <t>ABhLbcie3576YN35</t>
+  </si>
+  <si>
+    <t>SSC5ALEZlncZ6U35</t>
+  </si>
+  <si>
+    <t>DJQOudvzCucDgn35</t>
+  </si>
+  <si>
+    <t>5WESpjG8TvAD9h35</t>
+  </si>
+  <si>
+    <t>4fie2UnP4br1AU35</t>
+  </si>
+  <si>
+    <t>j71w76AiWuGaw535</t>
+  </si>
+  <si>
+    <t>0hgopFKL0XViT935</t>
+  </si>
+  <si>
+    <t>dC8jTRI3fg5MIx35</t>
+  </si>
+  <si>
+    <t>2Jw3EynyQjsRvn35</t>
+  </si>
+  <si>
+    <t>7QjYpoguzzcqUz35</t>
+  </si>
+  <si>
+    <t>dJRBKRSAKyDVuj35</t>
+  </si>
+  <si>
+    <t>dGBqHpwMrVqhzn35</t>
   </si>
 </sst>
 </file>
@@ -9458,10 +9728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R1218"/>
+  <dimension ref="A1:R1323"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1218" sqref="D1218"/>
+    <sheetView tabSelected="1" topLeftCell="A1300" workbookViewId="0">
+      <selection activeCell="M1327" sqref="M1327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66739,6 +67009,4941 @@
         <v>2929</v>
       </c>
       <c r="O1218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1219" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1219">
+        <v>1</v>
+      </c>
+      <c r="F1219" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1219" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1219" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1219" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1219" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K1219" t="s">
+        <v>600</v>
+      </c>
+      <c r="L1219" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1219" t="s">
+        <v>407</v>
+      </c>
+      <c r="N1219" t="s">
+        <v>1802</v>
+      </c>
+      <c r="O1219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1220" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1220">
+        <v>1</v>
+      </c>
+      <c r="F1220" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1220" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1220" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1220" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1220" t="s">
+        <v>564</v>
+      </c>
+      <c r="K1220" t="s">
+        <v>711</v>
+      </c>
+      <c r="L1220" t="s">
+        <v>306</v>
+      </c>
+      <c r="M1220" t="s">
+        <v>375</v>
+      </c>
+      <c r="N1220" t="s">
+        <v>1803</v>
+      </c>
+      <c r="O1220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1221" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1221">
+        <v>1</v>
+      </c>
+      <c r="F1221" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1221" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1221" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1221" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1221" t="s">
+        <v>710</v>
+      </c>
+      <c r="K1221" t="s">
+        <v>1212</v>
+      </c>
+      <c r="L1221" t="s">
+        <v>753</v>
+      </c>
+      <c r="M1221" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1221" t="s">
+        <v>1804</v>
+      </c>
+      <c r="O1221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1222" t="s">
+        <v>2949</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1222">
+        <v>1</v>
+      </c>
+      <c r="F1222" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1222" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1222" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1222" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1222" t="s">
+        <v>335</v>
+      </c>
+      <c r="K1222" t="s">
+        <v>1215</v>
+      </c>
+      <c r="L1222" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M1222" t="s">
+        <v>597</v>
+      </c>
+      <c r="N1222" t="s">
+        <v>1805</v>
+      </c>
+      <c r="O1222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1223" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1223">
+        <v>1</v>
+      </c>
+      <c r="F1223" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1223" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1223" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1223" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1223" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1223" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L1223" t="s">
+        <v>742</v>
+      </c>
+      <c r="M1223" t="s">
+        <v>466</v>
+      </c>
+      <c r="N1223" t="s">
+        <v>1735</v>
+      </c>
+      <c r="O1223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1224" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1224">
+        <v>1</v>
+      </c>
+      <c r="F1224" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1224" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1224" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1224" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1224" t="s">
+        <v>564</v>
+      </c>
+      <c r="K1224" t="s">
+        <v>1072</v>
+      </c>
+      <c r="L1224" t="s">
+        <v>565</v>
+      </c>
+      <c r="M1224" t="s">
+        <v>544</v>
+      </c>
+      <c r="N1224" t="s">
+        <v>1736</v>
+      </c>
+      <c r="O1224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1225" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1225">
+        <v>1</v>
+      </c>
+      <c r="F1225" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1225" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1225" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1225" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1225" t="s">
+        <v>388</v>
+      </c>
+      <c r="K1225" t="s">
+        <v>935</v>
+      </c>
+      <c r="L1225" t="s">
+        <v>1075</v>
+      </c>
+      <c r="M1225" t="s">
+        <v>561</v>
+      </c>
+      <c r="N1225" t="s">
+        <v>1737</v>
+      </c>
+      <c r="O1225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1226" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1226">
+        <v>1</v>
+      </c>
+      <c r="F1226" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1226" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1226" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1226" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1226" t="s">
+        <v>637</v>
+      </c>
+      <c r="K1226" t="s">
+        <v>397</v>
+      </c>
+      <c r="L1226" t="s">
+        <v>560</v>
+      </c>
+      <c r="M1226" t="s">
+        <v>632</v>
+      </c>
+      <c r="N1226" t="s">
+        <v>1722</v>
+      </c>
+      <c r="O1226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1227" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1227">
+        <v>1</v>
+      </c>
+      <c r="F1227" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1227" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1227" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1227" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1227" t="s">
+        <v>388</v>
+      </c>
+      <c r="K1227" t="s">
+        <v>956</v>
+      </c>
+      <c r="L1227" t="s">
+        <v>311</v>
+      </c>
+      <c r="M1227" t="s">
+        <v>466</v>
+      </c>
+      <c r="N1227" t="s">
+        <v>1723</v>
+      </c>
+      <c r="O1227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1228" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1228">
+        <v>1</v>
+      </c>
+      <c r="F1228" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1228" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1228" t="s">
+        <v>1883</v>
+      </c>
+      <c r="I1228" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1228" t="s">
+        <v>574</v>
+      </c>
+      <c r="K1228" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L1228" t="s">
+        <v>218</v>
+      </c>
+      <c r="M1228" t="s">
+        <v>407</v>
+      </c>
+      <c r="N1228" t="s">
+        <v>1724</v>
+      </c>
+      <c r="O1228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1229" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1229">
+        <v>1</v>
+      </c>
+      <c r="F1229" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1229" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1229" t="s">
+        <v>1883</v>
+      </c>
+      <c r="I1229" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1229" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1229" t="s">
+        <v>659</v>
+      </c>
+      <c r="L1229" t="s">
+        <v>660</v>
+      </c>
+      <c r="M1229" t="s">
+        <v>597</v>
+      </c>
+      <c r="N1229" t="s">
+        <v>1591</v>
+      </c>
+      <c r="O1229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1230" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>2395</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1230">
+        <v>1</v>
+      </c>
+      <c r="F1230" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1230" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1230" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1230" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1230" t="s">
+        <v>662</v>
+      </c>
+      <c r="K1230" t="s">
+        <v>421</v>
+      </c>
+      <c r="L1230" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1230" t="s">
+        <v>632</v>
+      </c>
+      <c r="N1230" t="s">
+        <v>1592</v>
+      </c>
+      <c r="O1230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1231" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1231">
+        <v>1</v>
+      </c>
+      <c r="F1231" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1231" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1231" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1231" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1231" t="s">
+        <v>498</v>
+      </c>
+      <c r="K1231" t="s">
+        <v>644</v>
+      </c>
+      <c r="L1231" t="s">
+        <v>459</v>
+      </c>
+      <c r="M1231" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1231" t="s">
+        <v>1593</v>
+      </c>
+      <c r="O1231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1232" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1232">
+        <v>1</v>
+      </c>
+      <c r="F1232" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1232" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1232" t="s">
+        <v>428</v>
+      </c>
+      <c r="I1232" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1232" t="s">
+        <v>626</v>
+      </c>
+      <c r="K1232" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1232" t="s">
+        <v>627</v>
+      </c>
+      <c r="M1232" t="s">
+        <v>474</v>
+      </c>
+      <c r="N1232" t="s">
+        <v>1583</v>
+      </c>
+      <c r="O1232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1233" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1233">
+        <v>1</v>
+      </c>
+      <c r="F1233" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1233" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1233" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1233" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1233" t="s">
+        <v>457</v>
+      </c>
+      <c r="K1233" t="s">
+        <v>345</v>
+      </c>
+      <c r="L1233" t="s">
+        <v>631</v>
+      </c>
+      <c r="M1233" t="s">
+        <v>632</v>
+      </c>
+      <c r="N1233" t="s">
+        <v>1584</v>
+      </c>
+      <c r="O1233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1234" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1234">
+        <v>1</v>
+      </c>
+      <c r="F1234" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1234" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1234" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1234" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1234" t="s">
+        <v>637</v>
+      </c>
+      <c r="K1234" t="s">
+        <v>638</v>
+      </c>
+      <c r="L1234" t="s">
+        <v>282</v>
+      </c>
+      <c r="M1234" t="s">
+        <v>597</v>
+      </c>
+      <c r="N1234" t="s">
+        <v>1585</v>
+      </c>
+      <c r="O1234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1235" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1235">
+        <v>1</v>
+      </c>
+      <c r="F1235" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1235" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1235" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1235" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1235" t="s">
+        <v>867</v>
+      </c>
+      <c r="K1235" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1235" t="s">
+        <v>868</v>
+      </c>
+      <c r="M1235" t="s">
+        <v>460</v>
+      </c>
+      <c r="N1235" t="s">
+        <v>1653</v>
+      </c>
+      <c r="O1235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1236" t="s">
+        <v>2973</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1236">
+        <v>1</v>
+      </c>
+      <c r="F1236" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1236" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1236" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1236" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1236" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K1236" t="s">
+        <v>600</v>
+      </c>
+      <c r="L1236" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1236" t="s">
+        <v>407</v>
+      </c>
+      <c r="N1236" t="s">
+        <v>1802</v>
+      </c>
+      <c r="O1236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1237" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1237">
+        <v>1</v>
+      </c>
+      <c r="F1237" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1237" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1237" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1237" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1237" t="s">
+        <v>564</v>
+      </c>
+      <c r="K1237" t="s">
+        <v>711</v>
+      </c>
+      <c r="L1237" t="s">
+        <v>306</v>
+      </c>
+      <c r="M1237" t="s">
+        <v>375</v>
+      </c>
+      <c r="N1237" t="s">
+        <v>1803</v>
+      </c>
+      <c r="O1237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1238" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1238">
+        <v>1</v>
+      </c>
+      <c r="F1238" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1238" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1238" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1238" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1238" t="s">
+        <v>710</v>
+      </c>
+      <c r="K1238" t="s">
+        <v>1212</v>
+      </c>
+      <c r="L1238" t="s">
+        <v>753</v>
+      </c>
+      <c r="M1238" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1238" t="s">
+        <v>1804</v>
+      </c>
+      <c r="O1238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1239" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1239">
+        <v>1</v>
+      </c>
+      <c r="F1239" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1239" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1239" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1239" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1239" t="s">
+        <v>335</v>
+      </c>
+      <c r="K1239" t="s">
+        <v>1215</v>
+      </c>
+      <c r="L1239" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M1239" t="s">
+        <v>597</v>
+      </c>
+      <c r="N1239" t="s">
+        <v>1805</v>
+      </c>
+      <c r="O1239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1240" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1240">
+        <v>1</v>
+      </c>
+      <c r="F1240" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1240" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1240" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1240" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1240" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1240" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L1240" t="s">
+        <v>742</v>
+      </c>
+      <c r="M1240" t="s">
+        <v>466</v>
+      </c>
+      <c r="N1240" t="s">
+        <v>1735</v>
+      </c>
+      <c r="O1240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1241" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1241">
+        <v>1</v>
+      </c>
+      <c r="F1241" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1241" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1241" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1241" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1241" t="s">
+        <v>564</v>
+      </c>
+      <c r="K1241" t="s">
+        <v>1072</v>
+      </c>
+      <c r="L1241" t="s">
+        <v>565</v>
+      </c>
+      <c r="M1241" t="s">
+        <v>544</v>
+      </c>
+      <c r="N1241" t="s">
+        <v>1736</v>
+      </c>
+      <c r="O1241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1242" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1242">
+        <v>1</v>
+      </c>
+      <c r="F1242" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1242" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1242" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1242" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1242" t="s">
+        <v>388</v>
+      </c>
+      <c r="K1242" t="s">
+        <v>935</v>
+      </c>
+      <c r="L1242" t="s">
+        <v>1075</v>
+      </c>
+      <c r="M1242" t="s">
+        <v>561</v>
+      </c>
+      <c r="N1242" t="s">
+        <v>1737</v>
+      </c>
+      <c r="O1242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1243" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1243">
+        <v>1</v>
+      </c>
+      <c r="F1243" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1243" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1243" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1243" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1243" t="s">
+        <v>335</v>
+      </c>
+      <c r="K1243" t="s">
+        <v>904</v>
+      </c>
+      <c r="L1243" t="s">
+        <v>255</v>
+      </c>
+      <c r="M1243" t="s">
+        <v>432</v>
+      </c>
+      <c r="N1243" t="s">
+        <v>1665</v>
+      </c>
+      <c r="O1243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1244" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1244">
+        <v>1</v>
+      </c>
+      <c r="F1244" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1244" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1244" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1244" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1244" t="s">
+        <v>564</v>
+      </c>
+      <c r="K1244" t="s">
+        <v>1072</v>
+      </c>
+      <c r="L1244" t="s">
+        <v>565</v>
+      </c>
+      <c r="M1244" t="s">
+        <v>544</v>
+      </c>
+      <c r="N1244" t="s">
+        <v>1736</v>
+      </c>
+      <c r="O1244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1245" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1245">
+        <v>1</v>
+      </c>
+      <c r="F1245" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1245" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1245" t="s">
+        <v>428</v>
+      </c>
+      <c r="I1245" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1245" t="s">
+        <v>388</v>
+      </c>
+      <c r="K1245" t="s">
+        <v>935</v>
+      </c>
+      <c r="L1245" t="s">
+        <v>1075</v>
+      </c>
+      <c r="M1245" t="s">
+        <v>561</v>
+      </c>
+      <c r="N1245" t="s">
+        <v>1737</v>
+      </c>
+      <c r="O1245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1246" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1246">
+        <v>1</v>
+      </c>
+      <c r="F1246" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1246" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1246" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1246" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1246" t="s">
+        <v>569</v>
+      </c>
+      <c r="K1246" t="s">
+        <v>1156</v>
+      </c>
+      <c r="L1246" t="s">
+        <v>514</v>
+      </c>
+      <c r="M1246" t="s">
+        <v>567</v>
+      </c>
+      <c r="N1246" t="s">
+        <v>1829</v>
+      </c>
+      <c r="O1246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1247" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1247">
+        <v>1</v>
+      </c>
+      <c r="F1247" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1247" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1247" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1247" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1247" t="s">
+        <v>509</v>
+      </c>
+      <c r="K1247" t="s">
+        <v>890</v>
+      </c>
+      <c r="L1247" t="s">
+        <v>565</v>
+      </c>
+      <c r="M1247" t="s">
+        <v>439</v>
+      </c>
+      <c r="N1247" t="s">
+        <v>1830</v>
+      </c>
+      <c r="O1247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1248" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1248">
+        <v>1</v>
+      </c>
+      <c r="F1248" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1248" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1248" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1248" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1248" t="s">
+        <v>335</v>
+      </c>
+      <c r="K1248" t="s">
+        <v>1215</v>
+      </c>
+      <c r="L1248" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M1248" t="s">
+        <v>597</v>
+      </c>
+      <c r="N1248" t="s">
+        <v>1805</v>
+      </c>
+      <c r="O1248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1249" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1249">
+        <v>1</v>
+      </c>
+      <c r="F1249" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1249" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1249" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1249" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1249" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1249" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L1249" t="s">
+        <v>742</v>
+      </c>
+      <c r="M1249" t="s">
+        <v>466</v>
+      </c>
+      <c r="N1249" t="s">
+        <v>1735</v>
+      </c>
+      <c r="O1249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1250" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1250">
+        <v>1</v>
+      </c>
+      <c r="F1250" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1250" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1250" t="s">
+        <v>1883</v>
+      </c>
+      <c r="I1250" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1250" t="s">
+        <v>564</v>
+      </c>
+      <c r="K1250" t="s">
+        <v>1072</v>
+      </c>
+      <c r="L1250" t="s">
+        <v>565</v>
+      </c>
+      <c r="M1250" t="s">
+        <v>544</v>
+      </c>
+      <c r="N1250" t="s">
+        <v>1736</v>
+      </c>
+      <c r="O1250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1251" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1251">
+        <v>1</v>
+      </c>
+      <c r="F1251" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1251" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1251" t="s">
+        <v>1883</v>
+      </c>
+      <c r="I1251" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1251" t="s">
+        <v>388</v>
+      </c>
+      <c r="K1251" t="s">
+        <v>935</v>
+      </c>
+      <c r="L1251" t="s">
+        <v>1075</v>
+      </c>
+      <c r="M1251" t="s">
+        <v>561</v>
+      </c>
+      <c r="N1251" t="s">
+        <v>1737</v>
+      </c>
+      <c r="O1251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1252" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1252">
+        <v>1</v>
+      </c>
+      <c r="F1252" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1252" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1252" t="s">
+        <v>1884</v>
+      </c>
+      <c r="I1252" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1252" t="s">
+        <v>637</v>
+      </c>
+      <c r="K1252" t="s">
+        <v>397</v>
+      </c>
+      <c r="L1252" t="s">
+        <v>560</v>
+      </c>
+      <c r="M1252" t="s">
+        <v>632</v>
+      </c>
+      <c r="N1252" t="s">
+        <v>1722</v>
+      </c>
+      <c r="O1252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1253" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>2395</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1253">
+        <v>1</v>
+      </c>
+      <c r="F1253" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1253" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1253" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1253" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1253" t="s">
+        <v>388</v>
+      </c>
+      <c r="K1253" t="s">
+        <v>956</v>
+      </c>
+      <c r="L1253" t="s">
+        <v>311</v>
+      </c>
+      <c r="M1253" t="s">
+        <v>466</v>
+      </c>
+      <c r="N1253" t="s">
+        <v>1723</v>
+      </c>
+      <c r="O1253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1254" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1254">
+        <v>1</v>
+      </c>
+      <c r="F1254" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1254" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1254" t="s">
+        <v>428</v>
+      </c>
+      <c r="I1254" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1254" t="s">
+        <v>574</v>
+      </c>
+      <c r="K1254" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L1254" t="s">
+        <v>218</v>
+      </c>
+      <c r="M1254" t="s">
+        <v>407</v>
+      </c>
+      <c r="N1254" t="s">
+        <v>1724</v>
+      </c>
+      <c r="O1254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1255" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1255">
+        <v>1</v>
+      </c>
+      <c r="F1255" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1255" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1255" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1255" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1255" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1255" t="s">
+        <v>659</v>
+      </c>
+      <c r="L1255" t="s">
+        <v>660</v>
+      </c>
+      <c r="M1255" t="s">
+        <v>597</v>
+      </c>
+      <c r="N1255" t="s">
+        <v>1591</v>
+      </c>
+      <c r="O1255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1256" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1256">
+        <v>1</v>
+      </c>
+      <c r="F1256" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1256" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1256" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1256" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1256" t="s">
+        <v>381</v>
+      </c>
+      <c r="K1256" t="s">
+        <v>659</v>
+      </c>
+      <c r="L1256" t="s">
+        <v>1182</v>
+      </c>
+      <c r="M1256" t="s">
+        <v>474</v>
+      </c>
+      <c r="N1256" t="s">
+        <v>1826</v>
+      </c>
+      <c r="O1256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1257" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1257">
+        <v>1</v>
+      </c>
+      <c r="F1257" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1257" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1257" t="s">
+        <v>1883</v>
+      </c>
+      <c r="I1257" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1257" t="s">
+        <v>429</v>
+      </c>
+      <c r="K1257" t="s">
+        <v>422</v>
+      </c>
+      <c r="L1257" t="s">
+        <v>571</v>
+      </c>
+      <c r="M1257" t="s">
+        <v>432</v>
+      </c>
+      <c r="N1257" t="s">
+        <v>1827</v>
+      </c>
+      <c r="O1257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1258" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1258">
+        <v>1</v>
+      </c>
+      <c r="F1258" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1258" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1258" t="s">
+        <v>1883</v>
+      </c>
+      <c r="I1258" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1258" t="s">
+        <v>900</v>
+      </c>
+      <c r="K1258" t="s">
+        <v>638</v>
+      </c>
+      <c r="L1258" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1258" t="s">
+        <v>474</v>
+      </c>
+      <c r="N1258" t="s">
+        <v>1819</v>
+      </c>
+      <c r="O1258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1259" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1259">
+        <v>1</v>
+      </c>
+      <c r="F1259" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1259" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1259" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1259" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1259" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1259" t="s">
+        <v>530</v>
+      </c>
+      <c r="L1259" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1259" t="s">
+        <v>544</v>
+      </c>
+      <c r="N1259" t="s">
+        <v>1820</v>
+      </c>
+      <c r="O1259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1260" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1260">
+        <v>1</v>
+      </c>
+      <c r="F1260" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1260" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1260" t="s">
+        <v>1884</v>
+      </c>
+      <c r="I1260" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1260" t="s">
+        <v>741</v>
+      </c>
+      <c r="K1260" t="s">
+        <v>904</v>
+      </c>
+      <c r="L1260" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M1260" t="s">
+        <v>466</v>
+      </c>
+      <c r="N1260" t="s">
+        <v>1821</v>
+      </c>
+      <c r="O1260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1261" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1261">
+        <v>1</v>
+      </c>
+      <c r="F1261" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1261" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1261" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1261" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1261" t="s">
+        <v>826</v>
+      </c>
+      <c r="K1261" t="s">
+        <v>890</v>
+      </c>
+      <c r="L1261" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1261" t="s">
+        <v>346</v>
+      </c>
+      <c r="N1261" t="s">
+        <v>1814</v>
+      </c>
+      <c r="O1261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1262" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1262">
+        <v>1</v>
+      </c>
+      <c r="F1262" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1262" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1262" t="s">
+        <v>1883</v>
+      </c>
+      <c r="I1262" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1262" t="s">
+        <v>924</v>
+      </c>
+      <c r="K1262" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L1262" t="s">
+        <v>712</v>
+      </c>
+      <c r="M1262" t="s">
+        <v>407</v>
+      </c>
+      <c r="N1262" t="s">
+        <v>1815</v>
+      </c>
+      <c r="O1262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1263" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1263">
+        <v>1</v>
+      </c>
+      <c r="F1263" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1263" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1263" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1263" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1263" t="s">
+        <v>564</v>
+      </c>
+      <c r="K1263" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1263" t="s">
+        <v>1237</v>
+      </c>
+      <c r="M1263" t="s">
+        <v>407</v>
+      </c>
+      <c r="N1263" t="s">
+        <v>1816</v>
+      </c>
+      <c r="O1263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1264" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1264">
+        <v>1</v>
+      </c>
+      <c r="F1264" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1264" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1264" t="s">
+        <v>1884</v>
+      </c>
+      <c r="I1264" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1264" t="s">
+        <v>890</v>
+      </c>
+      <c r="K1264" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L1264" t="s">
+        <v>692</v>
+      </c>
+      <c r="M1264" t="s">
+        <v>561</v>
+      </c>
+      <c r="N1264" t="s">
+        <v>1800</v>
+      </c>
+      <c r="O1264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1265" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1265">
+        <v>1</v>
+      </c>
+      <c r="F1265" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1265" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1265" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1265" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1265" t="s">
+        <v>826</v>
+      </c>
+      <c r="K1265" t="s">
+        <v>617</v>
+      </c>
+      <c r="L1265" t="s">
+        <v>465</v>
+      </c>
+      <c r="M1265" t="s">
+        <v>367</v>
+      </c>
+      <c r="N1265" t="s">
+        <v>1801</v>
+      </c>
+      <c r="O1265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1266" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1266">
+        <v>0</v>
+      </c>
+      <c r="F1266" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1266" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1266" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1266" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1266" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1266" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1266" t="s">
+        <v>569</v>
+      </c>
+      <c r="M1266" t="s">
+        <v>466</v>
+      </c>
+      <c r="N1266" t="s">
+        <v>2922</v>
+      </c>
+      <c r="O1266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1267" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1267">
+        <v>0</v>
+      </c>
+      <c r="F1267" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1267" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1267" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1267" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1267" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1267" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1267" t="s">
+        <v>691</v>
+      </c>
+      <c r="M1267" t="s">
+        <v>474</v>
+      </c>
+      <c r="N1267" t="s">
+        <v>2924</v>
+      </c>
+      <c r="O1267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1268" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1268">
+        <v>0</v>
+      </c>
+      <c r="F1268" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1268" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1268" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1268" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1268" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1268" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1268" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M1268" t="s">
+        <v>399</v>
+      </c>
+      <c r="N1268" t="s">
+        <v>2919</v>
+      </c>
+      <c r="O1268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1269" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1269">
+        <v>0</v>
+      </c>
+      <c r="F1269" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1269" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1269" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1269" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1269" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1269" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1269" t="s">
+        <v>711</v>
+      </c>
+      <c r="M1269" t="s">
+        <v>432</v>
+      </c>
+      <c r="N1269" t="s">
+        <v>2927</v>
+      </c>
+      <c r="O1269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1270" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1270">
+        <v>0</v>
+      </c>
+      <c r="F1270" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1270" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1270" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1270" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1270" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1270" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1270" t="s">
+        <v>352</v>
+      </c>
+      <c r="M1270" t="s">
+        <v>361</v>
+      </c>
+      <c r="N1270" t="s">
+        <v>2929</v>
+      </c>
+      <c r="O1270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1271" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1271">
+        <v>0</v>
+      </c>
+      <c r="F1271" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1271" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1271" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1271" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1271" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1271" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1271" t="s">
+        <v>904</v>
+      </c>
+      <c r="M1271" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1271" t="s">
+        <v>2915</v>
+      </c>
+      <c r="O1271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1272" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1272">
+        <v>0</v>
+      </c>
+      <c r="F1272" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1272" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1272" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1272" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1272" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1272" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1272" t="s">
+        <v>890</v>
+      </c>
+      <c r="M1272" t="s">
+        <v>399</v>
+      </c>
+      <c r="N1272" t="s">
+        <v>2917</v>
+      </c>
+      <c r="O1272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1273" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1273">
+        <v>0</v>
+      </c>
+      <c r="F1273" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1273" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1273" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1273" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1273" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1273" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1273" t="s">
+        <v>1132</v>
+      </c>
+      <c r="M1273" t="s">
+        <v>407</v>
+      </c>
+      <c r="N1273" t="s">
+        <v>2911</v>
+      </c>
+      <c r="O1273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1274" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1274">
+        <v>0</v>
+      </c>
+      <c r="F1274" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1274" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1274" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1274" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1274" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1274" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1274" t="s">
+        <v>190</v>
+      </c>
+      <c r="M1274" t="s">
+        <v>415</v>
+      </c>
+      <c r="N1274" t="s">
+        <v>2934</v>
+      </c>
+      <c r="O1274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1275" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1275">
+        <v>0</v>
+      </c>
+      <c r="F1275" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1275" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1275" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1275" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1275" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1275" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1275" t="s">
+        <v>1132</v>
+      </c>
+      <c r="M1275" t="s">
+        <v>423</v>
+      </c>
+      <c r="N1275" t="s">
+        <v>2911</v>
+      </c>
+      <c r="O1275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1276" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>2395</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1276">
+        <v>0</v>
+      </c>
+      <c r="F1276" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1276" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1276" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1276" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1276" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1276" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1276" t="s">
+        <v>617</v>
+      </c>
+      <c r="M1276" t="s">
+        <v>432</v>
+      </c>
+      <c r="N1276" t="s">
+        <v>2913</v>
+      </c>
+      <c r="O1276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1277" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1277">
+        <v>0</v>
+      </c>
+      <c r="F1277" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1277" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1277" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1277" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1277" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1277" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1277" t="s">
+        <v>904</v>
+      </c>
+      <c r="M1277" t="s">
+        <v>439</v>
+      </c>
+      <c r="N1277" t="s">
+        <v>2915</v>
+      </c>
+      <c r="O1277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1278" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1278">
+        <v>0</v>
+      </c>
+      <c r="F1278" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1278" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1278" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1278" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1278" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1278" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1278" t="s">
+        <v>890</v>
+      </c>
+      <c r="M1278" t="s">
+        <v>423</v>
+      </c>
+      <c r="N1278" t="s">
+        <v>2917</v>
+      </c>
+      <c r="O1278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1279" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1279">
+        <v>0</v>
+      </c>
+      <c r="F1279" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1279" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1279" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1279" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1279" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1279" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1279" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M1279" t="s">
+        <v>423</v>
+      </c>
+      <c r="N1279" t="s">
+        <v>2919</v>
+      </c>
+      <c r="O1279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1280" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1280">
+        <v>0</v>
+      </c>
+      <c r="F1280" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1280" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1280" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1280" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1280" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1280" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1280" t="s">
+        <v>890</v>
+      </c>
+      <c r="M1280" t="s">
+        <v>460</v>
+      </c>
+      <c r="N1280" t="s">
+        <v>2917</v>
+      </c>
+      <c r="O1280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1281" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1281">
+        <v>0</v>
+      </c>
+      <c r="F1281" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1281" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1281" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1281" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1281" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1281" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1281" t="s">
+        <v>569</v>
+      </c>
+      <c r="M1281" t="s">
+        <v>466</v>
+      </c>
+      <c r="N1281" t="s">
+        <v>2922</v>
+      </c>
+      <c r="O1281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1282" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1282">
+        <v>0</v>
+      </c>
+      <c r="F1282" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1282" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1282" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1282" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1282" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1282" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1282" t="s">
+        <v>691</v>
+      </c>
+      <c r="M1282" t="s">
+        <v>474</v>
+      </c>
+      <c r="N1282" t="s">
+        <v>2924</v>
+      </c>
+      <c r="O1282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1283" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1283">
+        <v>0</v>
+      </c>
+      <c r="F1283" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1283" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1283" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1283" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1283" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1283" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1283" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M1283" t="s">
+        <v>399</v>
+      </c>
+      <c r="N1283" t="s">
+        <v>2919</v>
+      </c>
+      <c r="O1283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1284" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1284">
+        <v>0</v>
+      </c>
+      <c r="F1284" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1284" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1284" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1284" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1284" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1284" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1284" t="s">
+        <v>711</v>
+      </c>
+      <c r="M1284" t="s">
+        <v>432</v>
+      </c>
+      <c r="N1284" t="s">
+        <v>2927</v>
+      </c>
+      <c r="O1284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1285" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1285">
+        <v>0</v>
+      </c>
+      <c r="F1285" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1285" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1285" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1285" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1285" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1285" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1285" t="s">
+        <v>352</v>
+      </c>
+      <c r="M1285" t="s">
+        <v>361</v>
+      </c>
+      <c r="N1285" t="s">
+        <v>2929</v>
+      </c>
+      <c r="O1285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1286" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1286">
+        <v>19</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1286">
+        <v>0</v>
+      </c>
+      <c r="F1286" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1286" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1286" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1286" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1286" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1286" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1286" t="s">
+        <v>735</v>
+      </c>
+      <c r="M1286" t="s">
+        <v>330</v>
+      </c>
+      <c r="N1286" t="s">
+        <v>2238</v>
+      </c>
+      <c r="O1286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1287" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1287">
+        <v>20</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1287">
+        <v>0</v>
+      </c>
+      <c r="F1287" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1287" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1287" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1287" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1287" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1287" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1287" t="s">
+        <v>1250</v>
+      </c>
+      <c r="M1287" t="s">
+        <v>337</v>
+      </c>
+      <c r="N1287" t="s">
+        <v>2239</v>
+      </c>
+      <c r="O1287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1288" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1288">
+        <v>0</v>
+      </c>
+      <c r="F1288" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1288" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1288" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1288" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1288" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1288" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1288" t="s">
+        <v>1072</v>
+      </c>
+      <c r="M1288" t="s">
+        <v>346</v>
+      </c>
+      <c r="N1288" t="s">
+        <v>2240</v>
+      </c>
+      <c r="O1288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1289" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1289">
+        <v>0</v>
+      </c>
+      <c r="F1289" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1289" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1289" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1289" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1289" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1289" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1289" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1289" t="s">
+        <v>353</v>
+      </c>
+      <c r="N1289" t="s">
+        <v>2241</v>
+      </c>
+      <c r="O1289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1290" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1290">
+        <v>0</v>
+      </c>
+      <c r="F1290" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1290" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1290" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1290" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1290" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1290" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1290" t="s">
+        <v>659</v>
+      </c>
+      <c r="M1290" t="s">
+        <v>361</v>
+      </c>
+      <c r="N1290" t="s">
+        <v>2242</v>
+      </c>
+      <c r="O1290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1291" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1291">
+        <v>0</v>
+      </c>
+      <c r="F1291" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1291" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1291" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1291" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1291" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1291" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1291" t="s">
+        <v>422</v>
+      </c>
+      <c r="M1291" t="s">
+        <v>367</v>
+      </c>
+      <c r="N1291" t="s">
+        <v>2243</v>
+      </c>
+      <c r="O1291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1292" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1292">
+        <v>0</v>
+      </c>
+      <c r="F1292" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1292" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1292" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1292" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1292" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1292" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1292" t="s">
+        <v>638</v>
+      </c>
+      <c r="M1292" t="s">
+        <v>375</v>
+      </c>
+      <c r="N1292" t="s">
+        <v>2244</v>
+      </c>
+      <c r="O1292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1293" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1293">
+        <v>0</v>
+      </c>
+      <c r="F1293" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1293" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1293" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1293" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1293" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1293" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1293" t="s">
+        <v>530</v>
+      </c>
+      <c r="M1293" t="s">
+        <v>174</v>
+      </c>
+      <c r="N1293" t="s">
+        <v>2245</v>
+      </c>
+      <c r="O1293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1294" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1294">
+        <v>0</v>
+      </c>
+      <c r="F1294" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1294" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1294" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1294" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1294" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1294" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1294" t="s">
+        <v>904</v>
+      </c>
+      <c r="M1294" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1294" t="s">
+        <v>2246</v>
+      </c>
+      <c r="O1294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1295" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1295">
+        <v>0</v>
+      </c>
+      <c r="F1295" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1295" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1295" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1295" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1295" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1295" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1295" t="s">
+        <v>890</v>
+      </c>
+      <c r="M1295" t="s">
+        <v>399</v>
+      </c>
+      <c r="N1295" t="s">
+        <v>2247</v>
+      </c>
+      <c r="O1295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1296" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1296">
+        <v>0</v>
+      </c>
+      <c r="F1296" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1296" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1296" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1296" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1296" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1296" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1296" t="s">
+        <v>1132</v>
+      </c>
+      <c r="M1296" t="s">
+        <v>407</v>
+      </c>
+      <c r="N1296" t="s">
+        <v>2248</v>
+      </c>
+      <c r="O1296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1297" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1297">
+        <v>0</v>
+      </c>
+      <c r="F1297" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1297" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1297" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1297" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1297" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1297" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1297" t="s">
+        <v>190</v>
+      </c>
+      <c r="M1297" t="s">
+        <v>415</v>
+      </c>
+      <c r="N1297" t="s">
+        <v>2249</v>
+      </c>
+      <c r="O1297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1298" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1298">
+        <v>0</v>
+      </c>
+      <c r="F1298" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1298" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1298" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1298" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1298" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1298" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1298" t="s">
+        <v>1132</v>
+      </c>
+      <c r="M1298" t="s">
+        <v>423</v>
+      </c>
+      <c r="N1298" t="s">
+        <v>2250</v>
+      </c>
+      <c r="O1298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1299" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>2395</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1299">
+        <v>0</v>
+      </c>
+      <c r="F1299" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1299" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1299" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1299" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1299" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1299" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1299" t="s">
+        <v>617</v>
+      </c>
+      <c r="M1299" t="s">
+        <v>432</v>
+      </c>
+      <c r="N1299" t="s">
+        <v>2251</v>
+      </c>
+      <c r="O1299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1300" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1300">
+        <v>0</v>
+      </c>
+      <c r="F1300" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1300" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1300" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1300" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1300" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1300" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1300" t="s">
+        <v>904</v>
+      </c>
+      <c r="M1300" t="s">
+        <v>439</v>
+      </c>
+      <c r="N1300" t="s">
+        <v>2252</v>
+      </c>
+      <c r="O1300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1301" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1301">
+        <v>0</v>
+      </c>
+      <c r="F1301" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1301" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1301" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1301" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1301" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1301" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1301" t="s">
+        <v>890</v>
+      </c>
+      <c r="M1301" t="s">
+        <v>423</v>
+      </c>
+      <c r="N1301" t="s">
+        <v>2253</v>
+      </c>
+      <c r="O1301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1302" t="s">
+        <v>3039</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1302">
+        <v>0</v>
+      </c>
+      <c r="F1302" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1302" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1302" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1302" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1302" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1302" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1302" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M1302" t="s">
+        <v>423</v>
+      </c>
+      <c r="N1302" t="s">
+        <v>2254</v>
+      </c>
+      <c r="O1302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1303" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1303">
+        <v>0</v>
+      </c>
+      <c r="F1303" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1303" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1303" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1303" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1303" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1303" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1303" t="s">
+        <v>890</v>
+      </c>
+      <c r="M1303" t="s">
+        <v>460</v>
+      </c>
+      <c r="N1303" t="s">
+        <v>2255</v>
+      </c>
+      <c r="O1303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1304" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1304">
+        <v>0</v>
+      </c>
+      <c r="F1304" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1304" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1304" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1304" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1304" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1304" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1304" t="s">
+        <v>569</v>
+      </c>
+      <c r="M1304" t="s">
+        <v>466</v>
+      </c>
+      <c r="N1304" t="s">
+        <v>2256</v>
+      </c>
+      <c r="O1304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1305" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1305">
+        <v>0</v>
+      </c>
+      <c r="F1305" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1305" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1305" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1305" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1305" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1305" t="s">
+        <v>691</v>
+      </c>
+      <c r="M1305" t="s">
+        <v>474</v>
+      </c>
+      <c r="N1305" t="s">
+        <v>2257</v>
+      </c>
+      <c r="O1305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1306" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1306">
+        <v>0</v>
+      </c>
+      <c r="F1306" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1306" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1306" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1306" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1306" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1306" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1306" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M1306" t="s">
+        <v>399</v>
+      </c>
+      <c r="N1306" t="s">
+        <v>2258</v>
+      </c>
+      <c r="O1306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1307" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1307">
+        <v>0</v>
+      </c>
+      <c r="F1307" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1307" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1307" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1307" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1307" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1307" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1307" t="s">
+        <v>711</v>
+      </c>
+      <c r="M1307" t="s">
+        <v>432</v>
+      </c>
+      <c r="N1307" t="s">
+        <v>2259</v>
+      </c>
+      <c r="O1307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1308" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1308">
+        <v>0</v>
+      </c>
+      <c r="F1308" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1308" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1308" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1308" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1308" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1308" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1308" t="s">
+        <v>352</v>
+      </c>
+      <c r="M1308" t="s">
+        <v>361</v>
+      </c>
+      <c r="N1308" t="s">
+        <v>2260</v>
+      </c>
+      <c r="O1308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1309" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1309">
+        <v>19</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1309">
+        <v>1</v>
+      </c>
+      <c r="F1309" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1309" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1309" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1309" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1309" t="s">
+        <v>569</v>
+      </c>
+      <c r="K1309" t="s">
+        <v>565</v>
+      </c>
+      <c r="L1309" s="10">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="M1309" s="10">
+        <v>0.66388888888888886</v>
+      </c>
+      <c r="N1309" t="s">
+        <v>2922</v>
+      </c>
+      <c r="O1309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1310" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1310">
+        <v>20</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1310">
+        <v>1</v>
+      </c>
+      <c r="F1310" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1310" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1310" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1310" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1310" t="s">
+        <v>691</v>
+      </c>
+      <c r="K1310" t="s">
+        <v>1075</v>
+      </c>
+      <c r="L1310" s="10">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="M1310" s="10">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="N1310" t="s">
+        <v>2924</v>
+      </c>
+      <c r="O1310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1311" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1311">
+        <v>1</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1311">
+        <v>1</v>
+      </c>
+      <c r="F1311" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1311" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1311" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1311" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1311" t="s">
+        <v>1156</v>
+      </c>
+      <c r="K1311" t="s">
+        <v>560</v>
+      </c>
+      <c r="L1311" s="10">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="M1311" s="10">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="N1311" t="s">
+        <v>2919</v>
+      </c>
+      <c r="O1311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1312" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1312">
+        <v>2</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1312">
+        <v>1</v>
+      </c>
+      <c r="F1312" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1312" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1312" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1312" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1312" t="s">
+        <v>711</v>
+      </c>
+      <c r="K1312" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1312" s="10">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="M1312" t="s">
+        <v>415</v>
+      </c>
+      <c r="N1312" t="s">
+        <v>2927</v>
+      </c>
+      <c r="O1312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1313" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1313">
+        <v>3</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1313">
+        <v>1</v>
+      </c>
+      <c r="F1313" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1313" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1313" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1313" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1313" t="s">
+        <v>352</v>
+      </c>
+      <c r="K1313" s="10">
+        <v>0.53541666666666665</v>
+      </c>
+      <c r="L1313" s="10">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="M1313" t="s">
+        <v>423</v>
+      </c>
+      <c r="N1313" t="s">
+        <v>2929</v>
+      </c>
+      <c r="O1313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1314" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1314">
+        <v>4</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1314">
+        <v>1</v>
+      </c>
+      <c r="F1314" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1314" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1314" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1314" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1314" t="s">
+        <v>904</v>
+      </c>
+      <c r="K1314" t="s">
+        <v>660</v>
+      </c>
+      <c r="L1314" s="10">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="M1314" t="s">
+        <v>432</v>
+      </c>
+      <c r="N1314" t="s">
+        <v>2915</v>
+      </c>
+      <c r="O1314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1315" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1315">
+        <v>5</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1315">
+        <v>1</v>
+      </c>
+      <c r="F1315" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1315" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1315" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1315" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1315" t="s">
+        <v>890</v>
+      </c>
+      <c r="K1315" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L1315" s="10">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="M1315" t="s">
+        <v>439</v>
+      </c>
+      <c r="N1315" t="s">
+        <v>2917</v>
+      </c>
+      <c r="O1315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1316" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1316">
+        <v>6</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1316">
+        <v>1</v>
+      </c>
+      <c r="F1316" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1316" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1316" t="s">
+        <v>428</v>
+      </c>
+      <c r="I1316" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1316" t="s">
+        <v>1132</v>
+      </c>
+      <c r="K1316" s="10">
+        <v>0.52916666666666667</v>
+      </c>
+      <c r="L1316" s="10">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="M1316" t="s">
+        <v>423</v>
+      </c>
+      <c r="N1316" t="s">
+        <v>2911</v>
+      </c>
+      <c r="O1316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1317" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C1317">
+        <v>7</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1317">
+        <v>1</v>
+      </c>
+      <c r="F1317" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1317" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1317" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1317" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1317" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1317" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1317" s="10">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="M1317" t="s">
+        <v>423</v>
+      </c>
+      <c r="N1317" t="s">
+        <v>2934</v>
+      </c>
+      <c r="O1317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1318" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C1318">
+        <v>8</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1318">
+        <v>1</v>
+      </c>
+      <c r="F1318" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1318" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1318" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1318" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1318" t="s">
+        <v>1132</v>
+      </c>
+      <c r="K1318" s="10">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="L1318" s="10">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="M1318" t="s">
+        <v>460</v>
+      </c>
+      <c r="N1318" t="s">
+        <v>2911</v>
+      </c>
+      <c r="O1318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1319" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C1319">
+        <v>9</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1319">
+        <v>1</v>
+      </c>
+      <c r="F1319" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1319" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1319" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1319" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1319" t="s">
+        <v>617</v>
+      </c>
+      <c r="K1319" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L1319" s="10">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="M1319" t="s">
+        <v>466</v>
+      </c>
+      <c r="N1319" t="s">
+        <v>2913</v>
+      </c>
+      <c r="O1319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1320" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C1320">
+        <v>10</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1320">
+        <v>1</v>
+      </c>
+      <c r="F1320" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1320" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1320" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I1320" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1320" t="s">
+        <v>904</v>
+      </c>
+      <c r="K1320" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1320" s="10">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="M1320" t="s">
+        <v>474</v>
+      </c>
+      <c r="N1320" t="s">
+        <v>2915</v>
+      </c>
+      <c r="O1320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1321" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C1321">
+        <v>11</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1321">
+        <v>1</v>
+      </c>
+      <c r="F1321" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1321" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1321" t="s">
+        <v>1883</v>
+      </c>
+      <c r="I1321" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1321" t="s">
+        <v>890</v>
+      </c>
+      <c r="K1321" s="10">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="L1321" s="10">
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="M1321" s="10">
+        <v>0.66805555555555562</v>
+      </c>
+      <c r="N1321" t="s">
+        <v>2917</v>
+      </c>
+      <c r="O1321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1322" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C1322">
+        <v>12</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1322">
+        <v>1</v>
+      </c>
+      <c r="F1322" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1322" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1322" t="s">
+        <v>1883</v>
+      </c>
+      <c r="I1322" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1322" t="s">
+        <v>1156</v>
+      </c>
+      <c r="K1322" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L1322" s="10">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="M1322" t="s">
+        <v>432</v>
+      </c>
+      <c r="N1322" t="s">
+        <v>2919</v>
+      </c>
+      <c r="O1322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1323" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C1323">
+        <v>13</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1323">
+        <v>1</v>
+      </c>
+      <c r="F1323" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1323" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1323" t="s">
+        <v>1884</v>
+      </c>
+      <c r="I1323" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1323" t="s">
+        <v>890</v>
+      </c>
+      <c r="K1323" t="s">
+        <v>692</v>
+      </c>
+      <c r="L1323" s="10">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="M1323" t="s">
+        <v>361</v>
+      </c>
+      <c r="N1323" t="s">
+        <v>2917</v>
+      </c>
+      <c r="O1323">
         <v>0</v>
       </c>
     </row>
@@ -68137,7 +73342,7 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -69484,7 +74689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="E328" sqref="E328"/>
     </sheetView>
   </sheetViews>
